--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Electronics\PLX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9698C8CF-1A8D-4768-A80A-A1C870D7B8E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE57C686-5C36-4A68-9AD5-078144EA4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="870" windowWidth="21600" windowHeight="14880" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Previous Port:</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t xml:space="preserve"> CMP_LAB2</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -245,6 +248,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -262,15 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -299,14 +302,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>323850</xdr:colOff>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>324196</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>58189</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>548640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -347,7 +350,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -740,63 +743,67 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K320"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O80" sqref="O80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="256" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="257" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -804,69 +811,75 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
         <v>-44</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>-68</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>-79</v>
       </c>
-      <c r="F2" s="6">
-        <v>-99</v>
-      </c>
       <c r="G2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="H2" s="6">
         <v>-76</v>
       </c>
-      <c r="H2" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I2" s="4">
+      <c r="I2" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J2" s="4">
         <v>-83</v>
       </c>
-      <c r="J2" s="23">
+      <c r="K2" s="17">
         <v>-63</v>
       </c>
-      <c r="K2" s="23">
+      <c r="L2" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>0</v>
       </c>
       <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="10">
         <v>-42</v>
       </c>
-      <c r="D3" s="10">
-        <v>-99</v>
-      </c>
       <c r="E3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F3" s="10">
         <v>-76</v>
       </c>
-      <c r="F3" s="10">
-        <v>-99</v>
-      </c>
       <c r="G3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H3" s="10">
         <v>-70</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>-53</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>-74</v>
       </c>
-      <c r="J3" s="23">
+      <c r="K3" s="17">
         <v>-54</v>
       </c>
-      <c r="K3" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -874,34 +887,37 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6">
         <v>-42</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>-57</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>-71</v>
       </c>
-      <c r="F4" s="10">
-        <v>-99</v>
-      </c>
       <c r="G4" s="10">
         <v>-99</v>
       </c>
       <c r="H4" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I4" s="10">
         <v>-55</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>-77</v>
       </c>
-      <c r="J4" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K4" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L4" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -909,34 +925,37 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
         <v>-43</v>
       </c>
-      <c r="D5" s="6">
-        <v>-99</v>
-      </c>
       <c r="E5" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F5" s="6">
         <v>-80</v>
       </c>
-      <c r="F5" s="10">
-        <v>-99</v>
-      </c>
       <c r="G5" s="10">
         <v>-99</v>
       </c>
       <c r="H5" s="10">
         <v>-99</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J5" s="5">
         <v>-72</v>
       </c>
-      <c r="J5" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K5" s="23">
+      <c r="K5" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L5" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>0</v>
       </c>
@@ -944,34 +963,37 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6">
         <v>-45</v>
       </c>
-      <c r="D6" s="6">
-        <v>-99</v>
-      </c>
       <c r="E6" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F6" s="6">
         <v>-75</v>
       </c>
-      <c r="F6" s="10">
-        <v>-99</v>
-      </c>
       <c r="G6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H6" s="10">
         <v>-68</v>
       </c>
-      <c r="H6" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J6" s="5">
         <v>-72</v>
       </c>
-      <c r="J6" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K6" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L6" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>0</v>
       </c>
@@ -979,34 +1001,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
         <v>-43</v>
       </c>
-      <c r="D7" s="6">
-        <v>-99</v>
-      </c>
       <c r="E7" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F7" s="6">
         <v>-74</v>
       </c>
-      <c r="F7" s="10">
-        <v>-99</v>
-      </c>
       <c r="G7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H7" s="10">
         <v>-70</v>
       </c>
-      <c r="H7" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J7" s="5">
         <v>-80</v>
       </c>
-      <c r="J7" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K7" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L7" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>0</v>
       </c>
@@ -1014,69 +1039,75 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
         <v>-38</v>
       </c>
-      <c r="D8" s="6">
-        <v>-99</v>
-      </c>
       <c r="E8" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F8" s="6">
         <v>-77</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G8" s="10">
         <v>-85</v>
       </c>
-      <c r="G8" s="10">
-        <v>-99</v>
-      </c>
       <c r="H8" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I8" s="10">
         <v>-61</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>-79</v>
       </c>
-      <c r="J8" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K8" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L8" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>0</v>
       </c>
       <c r="B9" s="11">
         <v>5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
         <v>-39</v>
       </c>
-      <c r="D9" s="11">
-        <v>-99</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="F9" s="7">
         <v>-77</v>
       </c>
-      <c r="F9" s="11">
-        <v>-99</v>
-      </c>
       <c r="G9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="H9" s="11">
         <v>-73</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <v>-55</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>-72</v>
       </c>
-      <c r="J9" s="23">
+      <c r="K9" s="17">
         <v>-56</v>
       </c>
-      <c r="K9" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>0</v>
       </c>
@@ -1084,892 +1115,967 @@
         <v>5</v>
       </c>
       <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6">
         <v>-42</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>-66</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>-79</v>
       </c>
-      <c r="F10" s="7">
-        <v>-99</v>
-      </c>
       <c r="G10" s="7">
+        <v>-99</v>
+      </c>
+      <c r="H10" s="7">
         <v>-71</v>
       </c>
-      <c r="H10" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J10" s="5">
         <v>-73</v>
       </c>
-      <c r="J10" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K10" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L10" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>0</v>
       </c>
       <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="10">
         <v>-39</v>
       </c>
-      <c r="D11" s="10">
+      <c r="E11" s="10">
         <v>-63</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>-76</v>
       </c>
-      <c r="F11" s="10">
-        <v>-99</v>
-      </c>
       <c r="G11" s="10">
         <v>-99</v>
       </c>
       <c r="H11" s="10">
         <v>-99</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J11" s="5">
         <v>-83</v>
       </c>
-      <c r="J11" s="23">
+      <c r="K11" s="17">
         <v>-54</v>
       </c>
-      <c r="K11" s="23">
+      <c r="L11" s="17">
         <v>-54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
       <c r="B12" s="10">
         <v>5</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="10">
         <v>-38</v>
       </c>
-      <c r="D12" s="10">
-        <v>-99</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F12" s="6">
         <v>-76</v>
       </c>
-      <c r="F12" s="10">
-        <v>-99</v>
-      </c>
       <c r="G12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H12" s="10">
         <v>-70</v>
       </c>
-      <c r="H12" s="10">
+      <c r="I12" s="10">
         <v>-51</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>-77</v>
       </c>
-      <c r="J12" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K12" s="23">
+      <c r="K12" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L12" s="17">
         <v>-52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>0</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10">
         <v>-41</v>
       </c>
-      <c r="D13" s="10">
-        <v>-99</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F13" s="6">
         <v>-72</v>
       </c>
-      <c r="F13" s="10">
-        <v>-99</v>
-      </c>
       <c r="G13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H13" s="10">
         <v>-72</v>
       </c>
-      <c r="H13" s="10">
+      <c r="I13" s="10">
         <v>-50</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>-70</v>
       </c>
-      <c r="J13" s="23">
+      <c r="K13" s="17">
         <v>-51</v>
       </c>
-      <c r="K13" s="23">
+      <c r="L13" s="17">
         <v>-52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>0</v>
       </c>
       <c r="B14" s="10">
         <v>5</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10">
         <v>-46</v>
       </c>
-      <c r="D14" s="6">
-        <v>-99</v>
-      </c>
       <c r="E14" s="6">
+        <v>-99</v>
+      </c>
+      <c r="F14" s="6">
         <v>-82</v>
       </c>
-      <c r="F14" s="10">
-        <v>-99</v>
-      </c>
       <c r="G14" s="10">
         <v>-99</v>
       </c>
       <c r="H14" s="10">
         <v>-99</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J14" s="5">
         <v>-78</v>
       </c>
-      <c r="J14" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K14" s="23">
+      <c r="K14" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L14" s="17">
         <v>-59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>0</v>
       </c>
       <c r="B15" s="10">
         <v>5</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
+        <v>4</v>
+      </c>
+      <c r="D15" s="10">
         <v>-37</v>
       </c>
-      <c r="D15" s="10">
+      <c r="E15" s="10">
         <v>-60</v>
       </c>
-      <c r="E15" s="6">
+      <c r="F15" s="6">
         <v>-74</v>
       </c>
-      <c r="F15" s="10">
-        <v>-99</v>
-      </c>
       <c r="G15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H15" s="10">
         <v>-73</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I15" s="10">
         <v>-58</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>-80</v>
       </c>
-      <c r="J15" s="23">
+      <c r="K15" s="17">
         <v>-59</v>
       </c>
-      <c r="K15" s="23">
+      <c r="L15" s="17">
         <v>-59</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>0</v>
       </c>
       <c r="B16" s="10">
         <v>5</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10">
         <v>-58</v>
       </c>
-      <c r="D16" s="10">
-        <v>-99</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="E16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="F16" s="6">
         <v>-74</v>
       </c>
-      <c r="F16" s="10">
-        <v>-99</v>
-      </c>
       <c r="G16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="H16" s="10">
         <v>-70</v>
       </c>
-      <c r="H16" s="10">
-        <v>-99</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="I16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J16" s="5">
         <v>-75</v>
       </c>
-      <c r="J16" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K16" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L16" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>0</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
         <v>-48</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="5">
         <v>-63</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <v>-77</v>
       </c>
-      <c r="F17" s="5">
-        <v>-99</v>
-      </c>
       <c r="G17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H17" s="5">
         <v>-57</v>
       </c>
-      <c r="H17" s="5">
-        <v>-99</v>
-      </c>
       <c r="I17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J17" s="5">
         <v>-71</v>
       </c>
-      <c r="J17" s="23">
+      <c r="K17" s="17">
         <v>-54</v>
       </c>
-      <c r="K17" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>0</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+      <c r="D18" s="5">
         <v>-44</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>-56</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <v>-74</v>
       </c>
-      <c r="F18" s="5">
-        <v>-99</v>
-      </c>
       <c r="G18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H18" s="5">
         <v>-65</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>-64</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>-73</v>
       </c>
-      <c r="J18" s="23">
+      <c r="K18" s="17">
         <v>-62</v>
       </c>
-      <c r="K18" s="23">
+      <c r="L18" s="17">
         <v>-64</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>0</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+      <c r="D19" s="5">
         <v>-32</v>
       </c>
-      <c r="D19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F19" s="4">
         <v>-77</v>
       </c>
-      <c r="F19" s="5">
-        <v>-99</v>
-      </c>
       <c r="G19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H19" s="5">
         <v>-64</v>
       </c>
-      <c r="H19" s="5">
-        <v>-99</v>
-      </c>
       <c r="I19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J19" s="5">
         <v>-71</v>
       </c>
-      <c r="J19" s="23">
+      <c r="K19" s="17">
         <v>-56</v>
       </c>
-      <c r="K19" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>0</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+      <c r="D20" s="4">
         <v>-40</v>
       </c>
-      <c r="D20" s="5">
+      <c r="E20" s="5">
         <v>-64</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <v>-79</v>
       </c>
-      <c r="F20" s="5">
-        <v>-99</v>
-      </c>
       <c r="G20" s="5">
         <v>-99</v>
       </c>
       <c r="H20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I20" s="5">
         <v>-56</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>-74</v>
       </c>
-      <c r="J20" s="23">
+      <c r="K20" s="17">
         <v>-58</v>
       </c>
-      <c r="K20" s="23">
+      <c r="L20" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>0</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5">
         <v>-37</v>
       </c>
-      <c r="D21" s="5">
+      <c r="E21" s="5">
         <v>-67</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <v>-78</v>
       </c>
-      <c r="F21" s="5">
-        <v>-99</v>
-      </c>
       <c r="G21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H21" s="5">
         <v>-71</v>
       </c>
-      <c r="H21" s="5">
-        <v>-99</v>
-      </c>
       <c r="I21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J21" s="5">
         <v>-76</v>
       </c>
-      <c r="J21" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K21" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L21" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>0</v>
       </c>
       <c r="B22" s="5">
         <v>5</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
+        <v>4</v>
+      </c>
+      <c r="D22" s="5">
         <v>-39</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>-58</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <v>-76</v>
       </c>
-      <c r="F22" s="5">
-        <v>-99</v>
-      </c>
       <c r="G22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H22" s="5">
         <v>-69</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>-57</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>-78</v>
       </c>
-      <c r="J22" s="23">
+      <c r="K22" s="17">
         <v>-56</v>
       </c>
-      <c r="K22" s="23">
+      <c r="L22" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>0</v>
       </c>
       <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="5">
         <v>-42</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>-63</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <v>-76</v>
       </c>
-      <c r="F23" s="5">
-        <v>-99</v>
-      </c>
       <c r="G23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H23" s="5">
         <v>-71</v>
       </c>
-      <c r="H23" s="5">
-        <v>-99</v>
-      </c>
       <c r="I23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J23" s="5">
         <v>-73</v>
       </c>
-      <c r="J23" s="23">
+      <c r="K23" s="17">
         <v>-55</v>
       </c>
-      <c r="K23" s="23">
+      <c r="L23" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>0</v>
       </c>
       <c r="B24" s="5">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
         <v>-39</v>
       </c>
-      <c r="D24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F24" s="4">
         <v>-78</v>
       </c>
-      <c r="F24" s="5">
-        <v>-99</v>
-      </c>
       <c r="G24" s="5">
         <v>-99</v>
       </c>
       <c r="H24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I24" s="5">
         <v>-50</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>-75</v>
       </c>
-      <c r="J24" s="23">
+      <c r="K24" s="17">
         <v>-50</v>
       </c>
-      <c r="K24" s="23">
+      <c r="L24" s="17">
         <v>-50</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>0</v>
       </c>
       <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+      <c r="D25" s="5">
         <v>-43</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>-58</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <v>-70</v>
       </c>
-      <c r="F25" s="5">
-        <v>-99</v>
-      </c>
       <c r="G25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H25" s="5">
         <v>-67</v>
       </c>
-      <c r="H25" s="5">
-        <v>-99</v>
-      </c>
       <c r="I25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J25" s="5">
         <v>-77</v>
       </c>
-      <c r="J25" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K25" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L25" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>0</v>
       </c>
       <c r="B26" s="5">
         <v>5</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+      <c r="D26" s="5">
         <v>-49</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>-57</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <v>-74</v>
       </c>
-      <c r="F26" s="5">
-        <v>-99</v>
-      </c>
       <c r="G26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H26" s="5">
         <v>-67</v>
       </c>
-      <c r="H26" s="5">
-        <v>-99</v>
-      </c>
       <c r="I26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J26" s="5">
         <v>-74</v>
       </c>
-      <c r="J26" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K26" s="23">
+      <c r="K26" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L26" s="17">
         <v>-63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0</v>
       </c>
       <c r="B27" s="5">
         <v>5</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="4">
         <v>-38</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>-55</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <v>-70</v>
       </c>
-      <c r="F27" s="5">
-        <v>-99</v>
-      </c>
       <c r="G27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H27" s="5">
         <v>-68</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>-61</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>-71</v>
       </c>
-      <c r="J27" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K27" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L27" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>0</v>
       </c>
       <c r="B28" s="5">
         <v>5</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5">
         <v>-34</v>
       </c>
-      <c r="D28" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="E28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F28" s="4">
         <v>-74</v>
       </c>
-      <c r="F28" s="5">
-        <v>-99</v>
-      </c>
       <c r="G28" s="5">
         <v>-99</v>
       </c>
       <c r="H28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I28" s="5">
         <v>-60</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>-75</v>
       </c>
-      <c r="J28" s="23">
+      <c r="K28" s="17">
         <v>-59</v>
       </c>
-      <c r="K28" s="23">
+      <c r="L28" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>0</v>
       </c>
       <c r="B29" s="5">
         <v>5</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5">
         <v>-39</v>
       </c>
-      <c r="D29" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="E29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F29" s="4">
         <v>-73</v>
       </c>
-      <c r="F29" s="5">
-        <v>-99</v>
-      </c>
       <c r="G29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H29" s="5">
         <v>-68</v>
       </c>
-      <c r="H29" s="5">
-        <v>-99</v>
-      </c>
       <c r="I29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J29" s="5">
         <v>-71</v>
       </c>
-      <c r="J29" s="23">
+      <c r="K29" s="17">
         <v>-60</v>
       </c>
-      <c r="K29" s="23">
+      <c r="L29" s="17">
         <v>-62</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>0</v>
       </c>
       <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="5">
         <v>-43</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>-58</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <v>-78</v>
       </c>
-      <c r="F30" s="5">
-        <v>-99</v>
-      </c>
       <c r="G30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H30" s="5">
         <v>-68</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>-63</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>-74</v>
       </c>
-      <c r="J30" s="23">
+      <c r="K30" s="17">
         <v>-63</v>
       </c>
-      <c r="K30" s="23">
+      <c r="L30" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>0</v>
       </c>
       <c r="B31" s="5">
         <v>5</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5">
         <v>-39</v>
       </c>
-      <c r="D31" s="5">
+      <c r="E31" s="5">
         <v>-62</v>
       </c>
-      <c r="E31" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>-99</v>
       </c>
       <c r="G31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H31" s="5">
         <v>-61</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>-58</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>-70</v>
       </c>
-      <c r="J31" s="23">
+      <c r="K31" s="17">
         <v>-59</v>
       </c>
-      <c r="K31" s="23">
+      <c r="L31" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>0</v>
       </c>
       <c r="B32" s="5">
         <v>5</v>
       </c>
-      <c r="C32" s="5">
-        <v>-99</v>
+      <c r="C32" s="6">
+        <v>4</v>
       </c>
       <c r="D32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="E32" s="5">
         <v>-61</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <v>-77</v>
       </c>
-      <c r="F32" s="5">
-        <v>-99</v>
-      </c>
       <c r="G32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H32" s="5">
         <v>-62</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>-66</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>-73</v>
       </c>
-      <c r="J32" s="23">
+      <c r="K32" s="17">
         <v>-61</v>
       </c>
-      <c r="K32" s="23">
+      <c r="L32" s="17">
         <v>-62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>0</v>
       </c>
       <c r="B33" s="5">
         <v>5</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+      <c r="D33" s="5">
         <v>-35</v>
       </c>
-      <c r="D33" s="5">
-        <v>-99</v>
-      </c>
       <c r="E33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F33" s="5">
         <v>-76</v>
       </c>
-      <c r="F33" s="5">
-        <v>-99</v>
-      </c>
       <c r="G33" s="5">
         <v>-99</v>
       </c>
       <c r="H33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I33" s="5">
         <v>-64</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>-74</v>
       </c>
-      <c r="J33" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K33" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L33" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>0</v>
       </c>
       <c r="B34" s="5">
         <v>5</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5">
         <v>-39</v>
       </c>
-      <c r="D34" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F34" s="4">
         <v>-78</v>
       </c>
-      <c r="F34" s="5">
-        <v>-99</v>
-      </c>
       <c r="G34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H34" s="5">
         <v>-73</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>-66</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>-74</v>
       </c>
-      <c r="J34" s="23">
+      <c r="K34" s="17">
         <v>-63</v>
       </c>
-      <c r="K34" s="23">
+      <c r="L34" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>0</v>
       </c>
       <c r="B35" s="5">
         <v>5</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5">
         <v>-41</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>-63</v>
       </c>
-      <c r="E35" s="4">
+      <c r="F35" s="4">
         <v>-77</v>
       </c>
-      <c r="F35" s="5">
-        <v>-99</v>
-      </c>
       <c r="G35" s="5">
         <v>-99</v>
       </c>
@@ -1977,244 +2083,265 @@
         <v>-99</v>
       </c>
       <c r="I35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J35" s="5">
         <v>-78</v>
       </c>
-      <c r="J35" s="23">
+      <c r="K35" s="17">
         <v>-58</v>
       </c>
-      <c r="K35" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>0</v>
       </c>
       <c r="B36" s="5">
         <v>5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
         <v>-42</v>
       </c>
-      <c r="D36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="E36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F36" s="4">
         <v>-82</v>
       </c>
-      <c r="F36" s="5">
-        <v>-99</v>
-      </c>
       <c r="G36" s="5">
         <v>-99</v>
       </c>
       <c r="H36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I36" s="5">
         <v>-67</v>
       </c>
-      <c r="I36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J36" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K36" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L36" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>0</v>
       </c>
       <c r="B37" s="5">
         <v>5</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5">
         <v>-35</v>
       </c>
-      <c r="D37" s="5">
+      <c r="E37" s="5">
         <v>-68</v>
       </c>
-      <c r="E37" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>-99</v>
       </c>
       <c r="G37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H37" s="5">
         <v>-73</v>
       </c>
-      <c r="H37" s="5">
-        <v>-99</v>
-      </c>
       <c r="I37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J37" s="5">
         <v>-78</v>
       </c>
-      <c r="J37" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K37" s="23">
+      <c r="K37" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L37" s="17">
         <v>-64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>0</v>
       </c>
       <c r="B38" s="5">
         <v>5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
+        <v>4</v>
+      </c>
+      <c r="D38" s="5">
         <v>-42</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>-63</v>
       </c>
-      <c r="E38" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <v>-99</v>
       </c>
       <c r="G38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H38" s="5">
         <v>-69</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>-59</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>-78</v>
       </c>
-      <c r="J38" s="23">
+      <c r="K38" s="17">
         <v>-61</v>
       </c>
-      <c r="K38" s="23">
+      <c r="L38" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>0</v>
       </c>
       <c r="B39" s="5">
         <v>5</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5">
         <v>-48</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>-58</v>
       </c>
-      <c r="E39" s="4">
+      <c r="F39" s="4">
         <v>-78</v>
       </c>
-      <c r="F39" s="5">
-        <v>-99</v>
-      </c>
       <c r="G39" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H39" s="5">
         <v>-74</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>-56</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>-80</v>
       </c>
-      <c r="J39" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K39" s="23">
+      <c r="K39" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L39" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>0</v>
       </c>
       <c r="B40" s="5">
         <v>5</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
+        <v>4</v>
+      </c>
+      <c r="D40" s="5">
         <v>-44</v>
       </c>
-      <c r="D40" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E40" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="E40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F40" s="4">
         <v>-99</v>
       </c>
       <c r="G40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H40" s="5">
         <v>-71</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>-58</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>-76</v>
       </c>
-      <c r="J40" s="23">
+      <c r="K40" s="17">
         <v>-54</v>
       </c>
-      <c r="K40" s="23">
+      <c r="L40" s="17">
         <v>-53</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>0</v>
       </c>
       <c r="B41" s="5">
         <v>5</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
+        <v>4</v>
+      </c>
+      <c r="D41" s="5">
         <v>-42</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>-60</v>
       </c>
-      <c r="E41" s="4">
+      <c r="F41" s="4">
         <v>-81</v>
       </c>
-      <c r="F41" s="5">
-        <v>-99</v>
-      </c>
       <c r="G41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H41" s="5">
         <v>-68</v>
       </c>
-      <c r="H41" s="5">
-        <v>-99</v>
-      </c>
       <c r="I41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J41" s="5">
         <v>-74</v>
       </c>
-      <c r="J41" s="23">
+      <c r="K41" s="17">
         <v>-55</v>
       </c>
-      <c r="K41" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>0</v>
       </c>
       <c r="B42" s="5">
         <v>5</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5">
         <v>-37</v>
       </c>
-      <c r="D42" s="5">
+      <c r="E42" s="5">
         <v>-67</v>
       </c>
-      <c r="E42" s="4">
+      <c r="F42" s="4">
         <v>-76</v>
       </c>
-      <c r="F42" s="5">
-        <v>-99</v>
-      </c>
       <c r="G42" s="5">
         <v>-99</v>
       </c>
@@ -2222,102 +2349,111 @@
         <v>-99</v>
       </c>
       <c r="I42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J42" s="5">
         <v>-73</v>
       </c>
-      <c r="J42" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K42" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L42" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>0</v>
       </c>
       <c r="B43" s="5">
         <v>5</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
+        <v>4</v>
+      </c>
+      <c r="D43" s="5">
         <v>-49</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>-58</v>
       </c>
-      <c r="E43" s="4">
+      <c r="F43" s="4">
         <v>-74</v>
       </c>
-      <c r="F43" s="5">
-        <v>-99</v>
-      </c>
       <c r="G43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H43" s="5">
         <v>-70</v>
       </c>
-      <c r="H43" s="5">
-        <v>-99</v>
-      </c>
       <c r="I43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J43" s="5">
         <v>-71</v>
       </c>
-      <c r="J43" s="23">
+      <c r="K43" s="17">
         <v>-62</v>
       </c>
-      <c r="K43" s="23">
+      <c r="L43" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>0</v>
       </c>
       <c r="B44" s="5">
         <v>5</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+      <c r="D44" s="5">
         <v>-43</v>
       </c>
-      <c r="D44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E44" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F44" s="4">
         <v>-99</v>
       </c>
       <c r="G44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H44" s="5">
         <v>-70</v>
       </c>
-      <c r="H44" s="5">
-        <v>-99</v>
-      </c>
       <c r="I44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J44" s="5">
         <v>-73</v>
       </c>
-      <c r="J44" s="23">
+      <c r="K44" s="17">
         <v>-61</v>
       </c>
-      <c r="K44" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>0</v>
       </c>
       <c r="B45" s="5">
         <v>5</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
+        <v>4</v>
+      </c>
+      <c r="D45" s="5">
         <v>-41</v>
       </c>
-      <c r="D45" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E45" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="E45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F45" s="4">
         <v>-99</v>
       </c>
       <c r="G45" s="5">
@@ -2329,92 +2465,101 @@
       <c r="I45" s="5">
         <v>-99</v>
       </c>
-      <c r="J45" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K45" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K45" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L45" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>0</v>
       </c>
       <c r="B46" s="5">
         <v>5</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5">
         <v>-39</v>
       </c>
-      <c r="D46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="E46" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F46" s="4">
         <v>-99</v>
       </c>
       <c r="G46" s="5">
         <v>-99</v>
       </c>
       <c r="H46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I46" s="5">
         <v>-60</v>
       </c>
-      <c r="I46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="J46" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K46" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K46" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L46" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>0</v>
       </c>
       <c r="B47" s="5">
         <v>5</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="6">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5">
         <v>-36</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>-64</v>
       </c>
-      <c r="E47" s="4">
-        <v>-99</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="F47" s="4">
         <v>-99</v>
       </c>
       <c r="G47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H47" s="5">
         <v>-70</v>
       </c>
-      <c r="H47" s="5">
-        <v>-99</v>
-      </c>
       <c r="I47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J47" s="5">
         <v>-71</v>
       </c>
-      <c r="J47" s="23">
+      <c r="K47" s="17">
         <v>-62</v>
       </c>
-      <c r="K47" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>0</v>
       </c>
       <c r="B48" s="5">
         <v>5</v>
       </c>
-      <c r="C48" s="5">
-        <v>-99</v>
+      <c r="C48" s="6">
+        <v>4</v>
       </c>
       <c r="D48" s="5">
         <v>-99</v>
@@ -2426,72 +2571,78 @@
         <v>-99</v>
       </c>
       <c r="G48" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H48" s="5">
         <v>-66</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>-60</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>-72</v>
       </c>
-      <c r="J48" s="23">
+      <c r="K48" s="17">
         <v>-60</v>
       </c>
-      <c r="K48" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>0</v>
       </c>
       <c r="B49" s="5">
         <v>5</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+      <c r="D49" s="5">
         <v>-46</v>
       </c>
-      <c r="D49" s="5">
+      <c r="E49" s="5">
         <v>-63</v>
       </c>
-      <c r="E49" s="5">
-        <v>-99</v>
-      </c>
       <c r="F49" s="5">
         <v>-99</v>
       </c>
       <c r="G49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H49" s="5">
         <v>-67</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>-66</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <v>-77</v>
       </c>
-      <c r="J49" s="23">
+      <c r="K49" s="17">
         <v>-65</v>
       </c>
-      <c r="K49" s="23">
+      <c r="L49" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>0</v>
       </c>
       <c r="B50" s="5">
         <v>5</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5">
         <v>-39</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>-56</v>
       </c>
-      <c r="E50" s="5">
-        <v>-99</v>
-      </c>
       <c r="F50" s="5">
         <v>-99</v>
       </c>
@@ -2502,63 +2653,69 @@
         <v>-99</v>
       </c>
       <c r="I50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J50" s="5">
         <v>-77</v>
       </c>
-      <c r="J50" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K50" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L50" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>0</v>
       </c>
       <c r="B51" s="5">
         <v>5</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="6">
+        <v>4</v>
+      </c>
+      <c r="D51" s="5">
         <v>-37</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>-54</v>
       </c>
-      <c r="E51" s="5">
-        <v>-99</v>
-      </c>
       <c r="F51" s="5">
         <v>-99</v>
       </c>
       <c r="G51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H51" s="5">
         <v>-59</v>
       </c>
-      <c r="H51" s="5">
-        <v>-99</v>
-      </c>
       <c r="I51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J51" s="5">
         <v>-77</v>
       </c>
-      <c r="J51" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K51" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L51" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>0</v>
       </c>
       <c r="B52" s="5">
         <v>5</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="6">
+        <v>4</v>
+      </c>
+      <c r="D52" s="5">
         <v>-41</v>
       </c>
-      <c r="D52" s="5">
-        <v>-99</v>
-      </c>
       <c r="E52" s="5">
         <v>-99</v>
       </c>
@@ -2566,142 +2723,154 @@
         <v>-99</v>
       </c>
       <c r="G52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H52" s="5">
         <v>-60</v>
       </c>
-      <c r="H52" s="5">
-        <v>-99</v>
-      </c>
       <c r="I52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J52" s="5">
         <v>-73</v>
       </c>
-      <c r="J52" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K52" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L52" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>0</v>
       </c>
       <c r="B53" s="5">
         <v>5</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
+        <v>4</v>
+      </c>
+      <c r="D53" s="5">
         <v>-38</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>-54</v>
       </c>
-      <c r="E53" s="5">
-        <v>-99</v>
-      </c>
       <c r="F53" s="5">
         <v>-99</v>
       </c>
       <c r="G53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H53" s="5">
         <v>-60</v>
       </c>
-      <c r="H53" s="5">
-        <v>-99</v>
-      </c>
       <c r="I53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J53" s="5">
         <v>-70</v>
       </c>
-      <c r="J53" s="23">
+      <c r="K53" s="17">
         <v>-59</v>
       </c>
-      <c r="K53" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>0</v>
       </c>
       <c r="B54" s="5">
         <v>5</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" s="5">
         <v>-49</v>
       </c>
-      <c r="D54" s="5">
+      <c r="E54" s="5">
         <v>-61</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>-75</v>
       </c>
-      <c r="F54" s="5">
-        <v>-99</v>
-      </c>
       <c r="G54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H54" s="5">
         <v>-66</v>
       </c>
-      <c r="H54" s="5">
-        <v>-99</v>
-      </c>
       <c r="I54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J54" s="5">
         <v>-81</v>
       </c>
-      <c r="J54" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K54" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L54" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>0</v>
       </c>
       <c r="B55" s="5">
         <v>5</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+      <c r="D55" s="5">
         <v>-46</v>
       </c>
-      <c r="D55" s="5">
+      <c r="E55" s="5">
         <v>-61</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>-73</v>
       </c>
-      <c r="F55" s="5">
-        <v>-99</v>
-      </c>
       <c r="G55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H55" s="5">
         <v>-68</v>
       </c>
-      <c r="H55" s="5">
-        <v>-99</v>
-      </c>
       <c r="I55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J55" s="5">
         <v>-73</v>
       </c>
-      <c r="J55" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K55" s="23">
+      <c r="K55" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L55" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>0</v>
       </c>
       <c r="B56" s="5">
         <v>5</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
+        <v>4</v>
+      </c>
+      <c r="D56" s="5">
         <v>-47</v>
       </c>
-      <c r="D56" s="5">
+      <c r="E56" s="5">
         <v>-59</v>
       </c>
-      <c r="E56" s="5">
-        <v>-99</v>
-      </c>
       <c r="F56" s="5">
         <v>-99</v>
       </c>
@@ -2712,31 +2881,34 @@
         <v>-99</v>
       </c>
       <c r="I56" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J56" s="5">
         <v>-71</v>
       </c>
-      <c r="J56" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K56" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K56" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L56" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>0</v>
       </c>
       <c r="B57" s="5">
         <v>5</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
+        <v>4</v>
+      </c>
+      <c r="D57" s="5">
         <v>-37</v>
       </c>
-      <c r="D57" s="5">
+      <c r="E57" s="5">
         <v>-60</v>
       </c>
-      <c r="E57" s="5">
-        <v>-99</v>
-      </c>
       <c r="F57" s="5">
         <v>-99</v>
       </c>
@@ -2747,69 +2919,75 @@
         <v>-99</v>
       </c>
       <c r="I57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J57" s="5">
         <v>-75</v>
       </c>
-      <c r="J57" s="23">
+      <c r="K57" s="17">
         <v>-64</v>
       </c>
-      <c r="K57" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>0</v>
       </c>
       <c r="B58" s="5">
         <v>5</v>
       </c>
-      <c r="C58" s="5">
-        <v>-99</v>
+      <c r="C58" s="6">
+        <v>4</v>
       </c>
       <c r="D58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="E58" s="5">
         <v>-59</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>-76</v>
       </c>
-      <c r="F58" s="5">
-        <v>-99</v>
-      </c>
       <c r="G58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H58" s="5">
         <v>-73</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>-58</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>-73</v>
       </c>
-      <c r="J58" s="23">
+      <c r="K58" s="17">
         <v>-55</v>
       </c>
-      <c r="K58" s="23">
+      <c r="L58" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>0</v>
       </c>
       <c r="B59" s="5">
         <v>5</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+      <c r="D59" s="5">
         <v>-41</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>-61</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>-80</v>
       </c>
-      <c r="F59" s="5">
-        <v>-99</v>
-      </c>
       <c r="G59" s="5">
         <v>-99</v>
       </c>
@@ -2819,29 +2997,32 @@
       <c r="I59" s="5">
         <v>-99</v>
       </c>
-      <c r="J59" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K59" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K59" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L59" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>0</v>
       </c>
       <c r="B60" s="5">
         <v>5</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
+        <v>4</v>
+      </c>
+      <c r="D60" s="5">
         <v>-45</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>-66</v>
       </c>
-      <c r="E60" s="5">
-        <v>-99</v>
-      </c>
       <c r="F60" s="5">
         <v>-99</v>
       </c>
@@ -2852,31 +3033,34 @@
         <v>-99</v>
       </c>
       <c r="I60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J60" s="5">
         <v>-71</v>
       </c>
-      <c r="J60" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K60" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L60" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>0</v>
       </c>
       <c r="B61" s="5">
         <v>5</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5">
         <v>-39</v>
       </c>
-      <c r="D61" s="5">
+      <c r="E61" s="5">
         <v>-61</v>
       </c>
-      <c r="E61" s="5">
-        <v>-99</v>
-      </c>
       <c r="F61" s="5">
         <v>-99</v>
       </c>
@@ -2887,69 +3071,75 @@
         <v>-99</v>
       </c>
       <c r="I61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J61" s="5">
         <v>-74</v>
       </c>
-      <c r="J61" s="23">
+      <c r="K61" s="17">
         <v>-64</v>
       </c>
-      <c r="K61" s="23">
+      <c r="L61" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>0</v>
       </c>
       <c r="B62" s="5">
         <v>5</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+      <c r="D62" s="5">
         <v>-43</v>
       </c>
-      <c r="D62" s="5">
+      <c r="E62" s="5">
         <v>-58</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>-76</v>
       </c>
-      <c r="F62" s="5">
-        <v>-99</v>
-      </c>
       <c r="G62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H62" s="5">
         <v>-68</v>
       </c>
-      <c r="H62" s="5">
-        <v>-99</v>
-      </c>
       <c r="I62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J62" s="5">
         <v>-74</v>
       </c>
-      <c r="J62" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K62" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L62" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>0</v>
       </c>
       <c r="B63" s="5">
         <v>5</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="6">
+        <v>4</v>
+      </c>
+      <c r="D63" s="5">
         <v>-37</v>
       </c>
-      <c r="D63" s="5">
-        <v>-99</v>
-      </c>
       <c r="E63" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F63" s="5">
         <v>-74</v>
       </c>
-      <c r="F63" s="5">
-        <v>-99</v>
-      </c>
       <c r="G63" s="5">
         <v>-99</v>
       </c>
@@ -2957,238 +3147,259 @@
         <v>-99</v>
       </c>
       <c r="I63" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J63" s="5">
         <v>-79</v>
       </c>
-      <c r="J63" s="23">
+      <c r="K63" s="17">
         <v>-67</v>
       </c>
-      <c r="K63" s="23">
+      <c r="L63" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>0</v>
       </c>
       <c r="B64" s="5">
         <v>5</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5">
         <v>-41</v>
       </c>
-      <c r="D64" s="5">
-        <v>-99</v>
-      </c>
       <c r="E64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F64" s="5">
         <v>-76</v>
       </c>
-      <c r="F64" s="5">
-        <v>-99</v>
-      </c>
       <c r="G64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H64" s="5">
         <v>-70</v>
       </c>
-      <c r="H64" s="5">
-        <v>-99</v>
-      </c>
       <c r="I64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J64" s="5">
         <v>-75</v>
       </c>
-      <c r="J64" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K64" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L64" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>0</v>
       </c>
       <c r="B65" s="5">
         <v>5</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="6">
+        <v>4</v>
+      </c>
+      <c r="D65" s="5">
         <v>-37</v>
       </c>
-      <c r="D65" s="5">
+      <c r="E65" s="5">
         <v>-65</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>-80</v>
       </c>
-      <c r="F65" s="5">
-        <v>-99</v>
-      </c>
       <c r="G65" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H65" s="5">
         <v>-76</v>
       </c>
-      <c r="H65" s="5">
+      <c r="I65" s="5">
         <v>-60</v>
       </c>
-      <c r="I65" s="5">
+      <c r="J65" s="5">
         <v>-76</v>
       </c>
-      <c r="J65" s="23">
+      <c r="K65" s="17">
         <v>-60</v>
       </c>
-      <c r="K65" s="23">
+      <c r="L65" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>0</v>
       </c>
       <c r="B66" s="5">
         <v>5</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="5">
         <v>-42</v>
       </c>
-      <c r="D66" s="5">
+      <c r="E66" s="5">
         <v>-62</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <v>-70</v>
       </c>
-      <c r="F66" s="5">
-        <v>-99</v>
-      </c>
       <c r="G66" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H66" s="5">
         <v>-69</v>
       </c>
-      <c r="H66" s="5">
-        <v>-99</v>
-      </c>
       <c r="I66" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J66" s="5">
         <v>-77</v>
       </c>
-      <c r="J66" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K66" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L66" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>0</v>
       </c>
       <c r="B67" s="5">
         <v>5</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="6">
+        <v>4</v>
+      </c>
+      <c r="D67" s="5">
         <v>-45</v>
       </c>
-      <c r="D67" s="5">
+      <c r="E67" s="5">
         <v>-61</v>
       </c>
-      <c r="E67" s="5">
-        <v>-99</v>
-      </c>
       <c r="F67" s="5">
         <v>-99</v>
       </c>
       <c r="G67" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H67" s="5">
         <v>-69</v>
       </c>
-      <c r="H67" s="5">
-        <v>-99</v>
-      </c>
       <c r="I67" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J67" s="5">
         <v>-79</v>
       </c>
-      <c r="J67" s="23">
+      <c r="K67" s="17">
         <v>-55</v>
       </c>
-      <c r="K67" s="23">
+      <c r="L67" s="17">
         <v>-55</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>0</v>
       </c>
       <c r="B68" s="5">
         <v>5</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="6">
+        <v>4</v>
+      </c>
+      <c r="D68" s="5">
         <v>-47</v>
       </c>
-      <c r="D68" s="5">
+      <c r="E68" s="5">
         <v>-59</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>-74</v>
       </c>
-      <c r="F68" s="5">
-        <v>-99</v>
-      </c>
       <c r="G68" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H68" s="5">
         <v>-71</v>
       </c>
-      <c r="H68" s="5">
+      <c r="I68" s="5">
         <v>-60</v>
       </c>
-      <c r="I68" s="5">
+      <c r="J68" s="5">
         <v>-78</v>
       </c>
-      <c r="J68" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K68" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L68" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>0</v>
       </c>
       <c r="B69" s="5">
         <v>5</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="6">
+        <v>4</v>
+      </c>
+      <c r="D69" s="5">
         <v>-42</v>
       </c>
-      <c r="D69" s="5">
-        <v>-99</v>
-      </c>
       <c r="E69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F69" s="5">
         <v>-77</v>
       </c>
-      <c r="F69" s="5">
-        <v>-99</v>
-      </c>
       <c r="G69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H69" s="5">
         <v>-64</v>
       </c>
-      <c r="H69" s="5">
-        <v>-99</v>
-      </c>
       <c r="I69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J69" s="5">
         <v>-82</v>
       </c>
-      <c r="J69" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K69" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L69" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>0</v>
       </c>
       <c r="B70" s="5">
         <v>5</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="6">
+        <v>4</v>
+      </c>
+      <c r="D70" s="5">
         <v>-39</v>
       </c>
-      <c r="D70" s="5">
-        <v>-99</v>
-      </c>
       <c r="E70" s="5">
         <v>-99</v>
       </c>
@@ -3196,34 +3407,37 @@
         <v>-99</v>
       </c>
       <c r="G70" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H70" s="5">
         <v>-67</v>
       </c>
-      <c r="H70" s="5">
-        <v>-99</v>
-      </c>
       <c r="I70" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J70" s="5">
         <v>-75</v>
       </c>
-      <c r="J70" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K70" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L70" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>0</v>
       </c>
       <c r="B71" s="5">
         <v>5</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="6">
+        <v>4</v>
+      </c>
+      <c r="D71" s="5">
         <v>-47</v>
       </c>
-      <c r="D71" s="5">
-        <v>-99</v>
-      </c>
       <c r="E71" s="5">
         <v>-99</v>
       </c>
@@ -3231,250 +3445,271 @@
         <v>-99</v>
       </c>
       <c r="G71" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H71" s="5">
         <v>-65</v>
       </c>
-      <c r="H71" s="5">
-        <v>-99</v>
-      </c>
       <c r="I71" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J71" s="5">
         <v>-75</v>
       </c>
-      <c r="J71" s="23">
+      <c r="K71" s="17">
         <v>-64</v>
       </c>
-      <c r="K71" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>0</v>
       </c>
       <c r="B72" s="5">
         <v>5</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="6">
+        <v>4</v>
+      </c>
+      <c r="D72" s="5">
         <v>-48</v>
       </c>
-      <c r="D72" s="5">
-        <v>-99</v>
-      </c>
       <c r="E72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F72" s="5">
         <v>-71</v>
       </c>
-      <c r="F72" s="5">
-        <v>-99</v>
-      </c>
       <c r="G72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H72" s="5">
         <v>-76</v>
       </c>
-      <c r="H72" s="5">
-        <v>-99</v>
-      </c>
       <c r="I72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J72" s="5">
         <v>-73</v>
       </c>
-      <c r="J72" s="23">
+      <c r="K72" s="17">
         <v>-56</v>
       </c>
-      <c r="K72" s="23">
+      <c r="L72" s="17">
         <v>-54</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>0</v>
       </c>
       <c r="B73" s="5">
         <v>5</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="6">
+        <v>4</v>
+      </c>
+      <c r="D73" s="5">
         <v>-47</v>
       </c>
-      <c r="D73" s="5">
+      <c r="E73" s="5">
         <v>-73</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <v>-71</v>
       </c>
-      <c r="F73" s="5">
-        <v>-99</v>
-      </c>
       <c r="G73" s="5">
         <v>-99</v>
       </c>
       <c r="H73" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I73" s="5">
         <v>-56</v>
       </c>
-      <c r="I73" s="5">
+      <c r="J73" s="5">
         <v>-74</v>
       </c>
-      <c r="J73" s="23">
+      <c r="K73" s="17">
         <v>-57</v>
       </c>
-      <c r="K73" s="23">
+      <c r="L73" s="17">
         <v>-54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>0</v>
       </c>
       <c r="B74" s="5">
         <v>5</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="6">
+        <v>4</v>
+      </c>
+      <c r="D74" s="5">
         <v>-49</v>
       </c>
-      <c r="D74" s="5">
-        <v>-99</v>
-      </c>
       <c r="E74" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F74" s="5">
         <v>-73</v>
       </c>
-      <c r="F74" s="5">
-        <v>-99</v>
-      </c>
       <c r="G74" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H74" s="5">
         <v>-72</v>
       </c>
-      <c r="H74" s="5">
+      <c r="I74" s="5">
         <v>-50</v>
       </c>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>-76</v>
       </c>
-      <c r="J74" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="K74" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L74" s="17">
         <v>-51</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>0</v>
       </c>
       <c r="B75" s="5">
         <v>5</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="6">
+        <v>4</v>
+      </c>
+      <c r="D75" s="5">
         <v>-50</v>
       </c>
-      <c r="D75" s="5">
-        <v>-99</v>
-      </c>
       <c r="E75" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F75" s="5">
         <v>-76</v>
       </c>
-      <c r="F75" s="5">
-        <v>-99</v>
-      </c>
       <c r="G75" s="5">
         <v>-99</v>
       </c>
       <c r="H75" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I75" s="5">
         <v>-54</v>
       </c>
-      <c r="I75" s="5">
+      <c r="J75" s="5">
         <v>-70</v>
       </c>
-      <c r="J75" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K75" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L75" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>0</v>
       </c>
       <c r="B76" s="5">
         <v>5</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="6">
+        <v>4</v>
+      </c>
+      <c r="D76" s="5">
         <v>-50</v>
       </c>
-      <c r="D76" s="5">
+      <c r="E76" s="5">
         <v>-67</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <v>-74</v>
       </c>
-      <c r="F76" s="5">
-        <v>-99</v>
-      </c>
       <c r="G76" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H76" s="5">
         <v>-70</v>
       </c>
-      <c r="H76" s="5">
-        <v>-99</v>
-      </c>
       <c r="I76" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J76" s="5">
         <v>-72</v>
       </c>
-      <c r="J76" s="23">
+      <c r="K76" s="17">
         <v>-57</v>
       </c>
-      <c r="K76" s="23">
+      <c r="L76" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>0</v>
       </c>
       <c r="B77" s="5">
         <v>5</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="5">
         <v>-50</v>
       </c>
-      <c r="D77" s="5">
-        <v>-99</v>
-      </c>
       <c r="E77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F77" s="5">
         <v>-73</v>
       </c>
-      <c r="F77" s="5">
-        <v>-99</v>
-      </c>
       <c r="G77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H77" s="5">
         <v>-72</v>
       </c>
-      <c r="H77" s="5">
-        <v>-99</v>
-      </c>
       <c r="I77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J77" s="5">
         <v>-68</v>
       </c>
-      <c r="J77" s="23">
+      <c r="K77" s="17">
         <v>-65</v>
       </c>
-      <c r="K77" s="23">
+      <c r="L77" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>0</v>
       </c>
       <c r="B78" s="5">
         <v>5</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="6">
+        <v>4</v>
+      </c>
+      <c r="D78" s="5">
         <v>-53</v>
       </c>
-      <c r="D78" s="5">
-        <v>-99</v>
-      </c>
       <c r="E78" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F78" s="5">
         <v>-71</v>
       </c>
-      <c r="F78" s="5">
-        <v>-99</v>
-      </c>
       <c r="G78" s="5">
         <v>-99</v>
       </c>
@@ -3482,34 +3717,37 @@
         <v>-99</v>
       </c>
       <c r="I78" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J78" s="5">
         <v>-70</v>
       </c>
-      <c r="J78" s="23">
+      <c r="K78" s="17">
         <v>-57</v>
       </c>
-      <c r="K78" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>0</v>
       </c>
       <c r="B79" s="5">
         <v>5</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="6">
+        <v>4</v>
+      </c>
+      <c r="D79" s="5">
         <v>-48</v>
       </c>
-      <c r="D79" s="5">
-        <v>-99</v>
-      </c>
       <c r="E79" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F79" s="5">
         <v>-75</v>
       </c>
-      <c r="F79" s="5">
-        <v>-99</v>
-      </c>
       <c r="G79" s="5">
         <v>-99</v>
       </c>
@@ -3517,28 +3755,31 @@
         <v>-99</v>
       </c>
       <c r="I79" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J79" s="5">
         <v>-70</v>
       </c>
-      <c r="J79" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K79" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K79" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L79" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>0</v>
       </c>
       <c r="B80" s="5">
         <v>5</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="6">
+        <v>4</v>
+      </c>
+      <c r="D80" s="5">
         <v>-46</v>
       </c>
-      <c r="D80" s="5">
-        <v>-99</v>
-      </c>
       <c r="E80" s="5">
         <v>-99</v>
       </c>
@@ -3546,75 +3787,81 @@
         <v>-99</v>
       </c>
       <c r="G80" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H80" s="5">
         <v>-72</v>
       </c>
-      <c r="H80" s="5">
+      <c r="I80" s="5">
         <v>-56</v>
       </c>
-      <c r="I80" s="5">
+      <c r="J80" s="5">
         <v>-74</v>
       </c>
-      <c r="J80" s="23">
+      <c r="K80" s="17">
         <v>-55</v>
       </c>
-      <c r="K80" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>0</v>
       </c>
       <c r="B81" s="5">
         <v>5</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="6">
+        <v>4</v>
+      </c>
+      <c r="D81" s="5">
         <v>-45</v>
       </c>
-      <c r="D81" s="5">
+      <c r="E81" s="5">
         <v>-69</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <v>-79</v>
       </c>
-      <c r="F81" s="5">
-        <v>-99</v>
-      </c>
       <c r="G81" s="5">
         <v>-99</v>
       </c>
       <c r="H81" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I81" s="5">
         <v>-58</v>
       </c>
-      <c r="I81" s="5">
+      <c r="J81" s="5">
         <v>-71</v>
       </c>
-      <c r="J81" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K81" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L81" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>0</v>
       </c>
       <c r="B82" s="5">
         <v>5</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="6">
+        <v>4</v>
+      </c>
+      <c r="D82" s="5">
         <v>-47</v>
       </c>
-      <c r="D82" s="5">
-        <v>-99</v>
-      </c>
       <c r="E82" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F82" s="5">
         <v>-72</v>
       </c>
-      <c r="F82" s="5">
-        <v>-99</v>
-      </c>
       <c r="G82" s="5">
         <v>-99</v>
       </c>
@@ -3622,28 +3869,31 @@
         <v>-99</v>
       </c>
       <c r="I82" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J82" s="5">
         <v>-70</v>
       </c>
-      <c r="J82" s="23">
+      <c r="K82" s="17">
         <v>-55</v>
       </c>
-      <c r="K82" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>0</v>
       </c>
       <c r="B83" s="5">
         <v>5</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="6">
+        <v>4</v>
+      </c>
+      <c r="D83" s="5">
         <v>-46</v>
       </c>
-      <c r="D83" s="5">
-        <v>-99</v>
-      </c>
       <c r="E83" s="5">
         <v>-99</v>
       </c>
@@ -3654,247 +3904,268 @@
         <v>-99</v>
       </c>
       <c r="H83" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I83" s="5">
         <v>-58</v>
       </c>
-      <c r="I83" s="5">
+      <c r="J83" s="5">
         <v>-69</v>
       </c>
-      <c r="J83" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K83" s="23">
+      <c r="K83" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L83" s="17">
         <v>-59</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>0</v>
       </c>
       <c r="B84" s="5">
         <v>5</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="6">
+        <v>4</v>
+      </c>
+      <c r="D84" s="5">
         <v>-48</v>
       </c>
-      <c r="D84" s="5">
+      <c r="E84" s="5">
         <v>-63</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <v>-73</v>
       </c>
-      <c r="F84" s="5">
-        <v>-99</v>
-      </c>
       <c r="G84" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H84" s="5">
         <v>-71</v>
       </c>
-      <c r="H84" s="5">
+      <c r="I84" s="5">
         <v>-58</v>
       </c>
-      <c r="I84" s="5">
+      <c r="J84" s="5">
         <v>-71</v>
       </c>
-      <c r="J84" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K84" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L84" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>0</v>
       </c>
       <c r="B85" s="5">
         <v>5</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="6">
+        <v>4</v>
+      </c>
+      <c r="D85" s="5">
         <v>-47</v>
       </c>
-      <c r="D85" s="5">
+      <c r="E85" s="5">
         <v>-63</v>
       </c>
-      <c r="E85" s="5">
-        <v>-99</v>
-      </c>
       <c r="F85" s="5">
         <v>-99</v>
       </c>
       <c r="G85" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H85" s="5">
         <v>-71</v>
       </c>
-      <c r="H85" s="5">
-        <v>-99</v>
-      </c>
       <c r="I85" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J85" s="5">
         <v>-69</v>
       </c>
-      <c r="J85" s="23">
+      <c r="K85" s="17">
         <v>-55</v>
       </c>
-      <c r="K85" s="23">
+      <c r="L85" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>0</v>
       </c>
       <c r="B86" s="5">
         <v>5</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="6">
+        <v>4</v>
+      </c>
+      <c r="D86" s="5">
         <v>-45</v>
       </c>
-      <c r="D86" s="5">
-        <v>-99</v>
-      </c>
       <c r="E86" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F86" s="5">
         <v>-82</v>
       </c>
-      <c r="F86" s="5">
-        <v>-99</v>
-      </c>
       <c r="G86" s="5">
         <v>-99</v>
       </c>
       <c r="H86" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I86" s="5">
         <v>-56</v>
       </c>
-      <c r="I86" s="5">
+      <c r="J86" s="5">
         <v>-74</v>
       </c>
-      <c r="J86" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K86" s="23">
+      <c r="K86" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L86" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>0</v>
       </c>
       <c r="B87" s="5">
         <v>5</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="6">
+        <v>4</v>
+      </c>
+      <c r="D87" s="5">
         <v>-49</v>
       </c>
-      <c r="D87" s="5">
-        <v>-99</v>
-      </c>
       <c r="E87" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F87" s="5">
         <v>-77</v>
       </c>
-      <c r="F87" s="5">
-        <v>-99</v>
-      </c>
       <c r="G87" s="5">
         <v>-99</v>
       </c>
       <c r="H87" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I87" s="5">
         <v>-57</v>
       </c>
-      <c r="I87" s="5">
+      <c r="J87" s="5">
         <v>-74</v>
       </c>
-      <c r="J87" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K87" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L87" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>0</v>
       </c>
       <c r="B88" s="5">
         <v>5</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="6">
+        <v>4</v>
+      </c>
+      <c r="D88" s="5">
         <v>-50</v>
       </c>
-      <c r="D88" s="5">
-        <v>-99</v>
-      </c>
       <c r="E88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F88" s="5">
         <v>-75</v>
       </c>
-      <c r="F88" s="5">
-        <v>-99</v>
-      </c>
       <c r="G88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H88" s="5">
         <v>-67</v>
       </c>
-      <c r="H88" s="5">
-        <v>-99</v>
-      </c>
       <c r="I88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J88" s="5">
         <v>-69</v>
       </c>
-      <c r="J88" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K88" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L88" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>0</v>
       </c>
       <c r="B89" s="5">
         <v>5</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="6">
+        <v>4</v>
+      </c>
+      <c r="D89" s="5">
         <v>-45</v>
       </c>
-      <c r="D89" s="5">
+      <c r="E89" s="5">
         <v>-61</v>
       </c>
-      <c r="E89" s="5">
+      <c r="F89" s="5">
         <v>-75</v>
       </c>
-      <c r="F89" s="5">
-        <v>-99</v>
-      </c>
       <c r="G89" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H89" s="5">
         <v>-72</v>
       </c>
-      <c r="H89" s="5">
-        <v>-99</v>
-      </c>
       <c r="I89" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J89" s="5">
         <v>-72</v>
       </c>
-      <c r="J89" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K89" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L89" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>0</v>
       </c>
       <c r="B90" s="5">
         <v>5</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="6">
+        <v>4</v>
+      </c>
+      <c r="D90" s="5">
         <v>-47</v>
       </c>
-      <c r="D90" s="5">
-        <v>-99</v>
-      </c>
       <c r="E90" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F90" s="5">
         <v>-75</v>
       </c>
-      <c r="F90" s="5">
-        <v>-99</v>
-      </c>
       <c r="G90" s="5">
         <v>-99</v>
       </c>
@@ -3902,69 +4173,75 @@
         <v>-99</v>
       </c>
       <c r="I90" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J90" s="5">
         <v>-72</v>
       </c>
-      <c r="J90" s="23">
-        <v>-99</v>
-      </c>
-      <c r="K90" s="23">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K90" s="17">
+        <v>-99</v>
+      </c>
+      <c r="L90" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>0</v>
       </c>
       <c r="B91" s="5">
         <v>5</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="6">
+        <v>4</v>
+      </c>
+      <c r="D91" s="5">
         <v>-48</v>
       </c>
-      <c r="D91" s="5">
+      <c r="E91" s="5">
         <v>-70</v>
       </c>
-      <c r="E91" s="5">
+      <c r="F91" s="5">
         <v>-72</v>
       </c>
-      <c r="F91" s="5">
-        <v>-99</v>
-      </c>
       <c r="G91" s="5">
+        <v>-99</v>
+      </c>
+      <c r="H91" s="5">
         <v>-66</v>
       </c>
-      <c r="H91" s="5">
-        <v>-99</v>
-      </c>
       <c r="I91" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J91" s="5">
         <v>-68</v>
       </c>
-      <c r="J91" s="23">
+      <c r="K91" s="17">
         <v>-55</v>
       </c>
-      <c r="K91" s="23">
+      <c r="L91" s="17">
         <v>-55</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>0</v>
       </c>
       <c r="B92" s="5">
         <v>5</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="6">
+        <v>4</v>
+      </c>
+      <c r="D92" s="5">
         <v>-46</v>
       </c>
-      <c r="D92" s="5">
+      <c r="E92" s="5">
         <v>-67</v>
       </c>
-      <c r="E92" s="5">
+      <c r="F92" s="5">
         <v>-77</v>
       </c>
-      <c r="F92" s="5">
-        <v>-99</v>
-      </c>
       <c r="G92" s="5">
         <v>-99</v>
       </c>
@@ -3972,16 +4249,19 @@
         <v>-99</v>
       </c>
       <c r="I92" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J92" s="5">
         <v>-73</v>
       </c>
-      <c r="J92" s="23">
+      <c r="K92" s="17">
         <v>-59</v>
       </c>
-      <c r="K92" s="23">
+      <c r="L92" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3991,10 +4271,11 @@
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J93" s="5"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4004,10 +4285,11 @@
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J94" s="5"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4017,10 +4299,11 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J95" s="5"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4030,10 +4313,11 @@
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J96" s="5"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4043,10 +4327,11 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J97" s="5"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4056,10 +4341,11 @@
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J98" s="5"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4069,10 +4355,11 @@
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J99" s="5"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4082,10 +4369,11 @@
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J100" s="5"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4095,10 +4383,11 @@
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J101" s="5"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4108,10 +4397,11 @@
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J102" s="5"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4121,10 +4411,11 @@
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J103" s="5"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4134,10 +4425,11 @@
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J104" s="5"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4147,10 +4439,11 @@
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="23"/>
-      <c r="K105" s="23"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J105" s="5"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4160,10 +4453,11 @@
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="23"/>
-      <c r="K106" s="23"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J106" s="5"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4173,10 +4467,11 @@
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J107" s="5"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4186,10 +4481,11 @@
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J108" s="5"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4199,10 +4495,11 @@
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="23"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J109" s="5"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4212,10 +4509,11 @@
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J110" s="5"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4225,10 +4523,11 @@
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J111" s="5"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4238,10 +4537,11 @@
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J112" s="5"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4251,10 +4551,11 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J113" s="5"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4264,10 +4565,11 @@
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J114" s="5"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4277,10 +4579,11 @@
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J115" s="5"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4290,10 +4593,11 @@
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J116" s="5"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4303,10 +4607,11 @@
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J117" s="5"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4316,10 +4621,11 @@
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J118" s="5"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4329,10 +4635,11 @@
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J119" s="5"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4342,10 +4649,11 @@
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J120" s="5"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4355,10 +4663,11 @@
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J121" s="5"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4368,10 +4677,11 @@
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J122" s="5"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4381,10 +4691,11 @@
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
-      <c r="J123" s="23"/>
-      <c r="K123" s="23"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J123" s="5"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4394,10 +4705,11 @@
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J124" s="5"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4407,10 +4719,11 @@
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J125" s="5"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4420,10 +4733,11 @@
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J126" s="5"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4433,10 +4747,11 @@
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J127" s="5"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4446,10 +4761,11 @@
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J128" s="5"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4459,10 +4775,11 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J129" s="5"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4472,10 +4789,11 @@
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J130" s="5"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4485,10 +4803,11 @@
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J131" s="5"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4498,10 +4817,11 @@
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J132" s="5"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4511,10 +4831,11 @@
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J133" s="5"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4524,10 +4845,11 @@
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J134" s="5"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4537,10 +4859,11 @@
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="23"/>
-      <c r="K135" s="23"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J135" s="5"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4550,10 +4873,11 @@
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="23"/>
-      <c r="K136" s="23"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J136" s="5"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4563,10 +4887,11 @@
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J137" s="5"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4576,10 +4901,11 @@
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="23"/>
-      <c r="K138" s="23"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J138" s="5"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4589,10 +4915,11 @@
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J139" s="5"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4602,10 +4929,11 @@
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="23"/>
-      <c r="K140" s="23"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J140" s="5"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4615,10 +4943,11 @@
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="23"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J141" s="5"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4628,10 +4957,11 @@
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
-      <c r="J142" s="23"/>
-      <c r="K142" s="23"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J142" s="5"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4641,10 +4971,11 @@
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
-      <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J143" s="5"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4654,10 +4985,11 @@
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J144" s="5"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4667,10 +4999,11 @@
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J145" s="5"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4680,10 +5013,11 @@
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J146" s="5"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4693,10 +5027,11 @@
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J147" s="5"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4706,10 +5041,11 @@
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J148" s="5"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4719,10 +5055,11 @@
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J149" s="5"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4732,10 +5069,11 @@
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J150" s="5"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4745,10 +5083,11 @@
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J151" s="5"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4758,10 +5097,11 @@
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J152" s="5"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4771,10 +5111,11 @@
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J153" s="5"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4784,10 +5125,11 @@
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J154" s="5"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4797,10 +5139,11 @@
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J155" s="5"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4810,10 +5153,11 @@
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J156" s="5"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4823,10 +5167,11 @@
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J157" s="5"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4836,10 +5181,11 @@
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="23"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J158" s="5"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4849,10 +5195,11 @@
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
-      <c r="J159" s="23"/>
-      <c r="K159" s="23"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J159" s="5"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4862,10 +5209,11 @@
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
-      <c r="J160" s="23"/>
-      <c r="K160" s="23"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J160" s="5"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="17"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -4875,10 +5223,11 @@
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J161" s="5"/>
+      <c r="K161" s="17"/>
+      <c r="L161" s="17"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -4888,10 +5237,11 @@
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="23"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J162" s="5"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="17"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -4901,10 +5251,11 @@
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="23"/>
-      <c r="K163" s="23"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J163" s="5"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -4914,10 +5265,11 @@
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
-      <c r="J164" s="23"/>
-      <c r="K164" s="23"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J164" s="5"/>
+      <c r="K164" s="17"/>
+      <c r="L164" s="17"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -4927,10 +5279,11 @@
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="23"/>
-      <c r="K165" s="23"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J165" s="5"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -4940,10 +5293,11 @@
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
-      <c r="J166" s="23"/>
-      <c r="K166" s="23"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J166" s="5"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="17"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4953,10 +5307,11 @@
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
-      <c r="J167" s="23"/>
-      <c r="K167" s="23"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J167" s="5"/>
+      <c r="K167" s="17"/>
+      <c r="L167" s="17"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -4966,10 +5321,11 @@
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
-      <c r="J168" s="23"/>
-      <c r="K168" s="23"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J168" s="5"/>
+      <c r="K168" s="17"/>
+      <c r="L168" s="17"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -4979,10 +5335,11 @@
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
-      <c r="J169" s="23"/>
-      <c r="K169" s="23"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J169" s="5"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -4992,10 +5349,11 @@
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
-      <c r="J170" s="23"/>
-      <c r="K170" s="23"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J170" s="5"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5005,10 +5363,11 @@
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
-      <c r="J171" s="23"/>
-      <c r="K171" s="23"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J171" s="5"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5018,10 +5377,11 @@
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
-      <c r="J172" s="23"/>
-      <c r="K172" s="23"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J172" s="5"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5031,10 +5391,11 @@
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="23"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J173" s="5"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5044,10 +5405,11 @@
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="23"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J174" s="5"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5057,10 +5419,11 @@
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
-      <c r="J175" s="23"/>
-      <c r="K175" s="23"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J175" s="5"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="17"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5070,10 +5433,11 @@
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
-      <c r="J176" s="23"/>
-      <c r="K176" s="23"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J176" s="5"/>
+      <c r="K176" s="17"/>
+      <c r="L176" s="17"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5083,10 +5447,11 @@
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
-      <c r="J177" s="23"/>
-      <c r="K177" s="23"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J177" s="5"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5096,10 +5461,11 @@
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
-      <c r="J178" s="23"/>
-      <c r="K178" s="23"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J178" s="5"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="17"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5109,10 +5475,11 @@
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
-      <c r="J179" s="23"/>
-      <c r="K179" s="23"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J179" s="5"/>
+      <c r="K179" s="17"/>
+      <c r="L179" s="17"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5122,10 +5489,11 @@
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
-      <c r="J180" s="23"/>
-      <c r="K180" s="23"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J180" s="5"/>
+      <c r="K180" s="17"/>
+      <c r="L180" s="17"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5135,10 +5503,11 @@
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
-      <c r="J181" s="23"/>
-      <c r="K181" s="23"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J181" s="5"/>
+      <c r="K181" s="17"/>
+      <c r="L181" s="17"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5148,10 +5517,11 @@
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
-      <c r="J182" s="23"/>
-      <c r="K182" s="23"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J182" s="5"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5161,10 +5531,11 @@
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
-      <c r="J183" s="23"/>
-      <c r="K183" s="23"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J183" s="5"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5174,10 +5545,11 @@
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
-      <c r="J184" s="23"/>
-      <c r="K184" s="23"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J184" s="5"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="17"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5187,10 +5559,11 @@
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
-      <c r="J185" s="23"/>
-      <c r="K185" s="23"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J185" s="5"/>
+      <c r="K185" s="17"/>
+      <c r="L185" s="17"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5200,10 +5573,11 @@
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
-      <c r="J186" s="23"/>
-      <c r="K186" s="23"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J186" s="5"/>
+      <c r="K186" s="17"/>
+      <c r="L186" s="17"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5213,10 +5587,11 @@
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
-      <c r="J187" s="23"/>
-      <c r="K187" s="23"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J187" s="5"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5226,10 +5601,11 @@
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
-      <c r="J188" s="23"/>
-      <c r="K188" s="23"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J188" s="5"/>
+      <c r="K188" s="17"/>
+      <c r="L188" s="17"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5239,10 +5615,11 @@
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
-      <c r="J189" s="23"/>
-      <c r="K189" s="23"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J189" s="5"/>
+      <c r="K189" s="17"/>
+      <c r="L189" s="17"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5252,10 +5629,11 @@
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="23"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J190" s="5"/>
+      <c r="K190" s="17"/>
+      <c r="L190" s="17"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5265,10 +5643,11 @@
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
-      <c r="J191" s="23"/>
-      <c r="K191" s="23"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J191" s="5"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5278,10 +5657,11 @@
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
-      <c r="J192" s="23"/>
-      <c r="K192" s="23"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J192" s="5"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5291,10 +5671,11 @@
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
-      <c r="J193" s="23"/>
-      <c r="K193" s="23"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J193" s="5"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5304,10 +5685,11 @@
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
-      <c r="J194" s="23"/>
-      <c r="K194" s="23"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J194" s="5"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5317,10 +5699,11 @@
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
-      <c r="J195" s="23"/>
-      <c r="K195" s="23"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J195" s="5"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5330,10 +5713,11 @@
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
-      <c r="J196" s="23"/>
-      <c r="K196" s="23"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J196" s="5"/>
+      <c r="K196" s="17"/>
+      <c r="L196" s="17"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5343,10 +5727,11 @@
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
-      <c r="J197" s="23"/>
-      <c r="K197" s="23"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J197" s="5"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="17"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5356,10 +5741,11 @@
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
-      <c r="J198" s="23"/>
-      <c r="K198" s="23"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J198" s="5"/>
+      <c r="K198" s="17"/>
+      <c r="L198" s="17"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5369,10 +5755,11 @@
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
-      <c r="J199" s="23"/>
-      <c r="K199" s="23"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J199" s="5"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5382,10 +5769,11 @@
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
-      <c r="J200" s="23"/>
-      <c r="K200" s="23"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J200" s="5"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5395,10 +5783,11 @@
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J201" s="5"/>
+      <c r="K201" s="17"/>
+      <c r="L201" s="17"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5408,10 +5797,11 @@
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
-      <c r="J202" s="23"/>
-      <c r="K202" s="23"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J202" s="5"/>
+      <c r="K202" s="17"/>
+      <c r="L202" s="17"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5421,10 +5811,11 @@
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
-      <c r="J203" s="23"/>
-      <c r="K203" s="23"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J203" s="5"/>
+      <c r="K203" s="17"/>
+      <c r="L203" s="17"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5434,10 +5825,11 @@
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
-      <c r="J204" s="23"/>
-      <c r="K204" s="23"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J204" s="5"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5447,10 +5839,11 @@
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
-      <c r="J205" s="23"/>
-      <c r="K205" s="23"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J205" s="5"/>
+      <c r="K205" s="17"/>
+      <c r="L205" s="17"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5460,10 +5853,11 @@
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
-      <c r="J206" s="23"/>
-      <c r="K206" s="23"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J206" s="5"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5473,10 +5867,11 @@
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
-      <c r="J207" s="23"/>
-      <c r="K207" s="23"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J207" s="5"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5486,10 +5881,11 @@
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
-      <c r="J208" s="23"/>
-      <c r="K208" s="23"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J208" s="5"/>
+      <c r="K208" s="17"/>
+      <c r="L208" s="17"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5499,10 +5895,11 @@
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
-      <c r="J209" s="23"/>
-      <c r="K209" s="23"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J209" s="5"/>
+      <c r="K209" s="17"/>
+      <c r="L209" s="17"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5512,10 +5909,11 @@
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
-      <c r="J210" s="23"/>
-      <c r="K210" s="23"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J210" s="5"/>
+      <c r="K210" s="17"/>
+      <c r="L210" s="17"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5525,10 +5923,11 @@
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
-      <c r="J211" s="23"/>
-      <c r="K211" s="23"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J211" s="5"/>
+      <c r="K211" s="17"/>
+      <c r="L211" s="17"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5538,10 +5937,11 @@
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
-      <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J212" s="5"/>
+      <c r="K212" s="17"/>
+      <c r="L212" s="17"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5551,10 +5951,11 @@
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
-      <c r="J213" s="23"/>
-      <c r="K213" s="23"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J213" s="5"/>
+      <c r="K213" s="17"/>
+      <c r="L213" s="17"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5564,10 +5965,11 @@
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
-      <c r="J214" s="23"/>
-      <c r="K214" s="23"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J214" s="5"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="17"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5577,10 +5979,11 @@
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J215" s="5"/>
+      <c r="K215" s="17"/>
+      <c r="L215" s="17"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5590,10 +5993,11 @@
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J216" s="5"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="17"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -5603,10 +6007,11 @@
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J217" s="5"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -5616,10 +6021,11 @@
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
-      <c r="J218" s="23"/>
-      <c r="K218" s="23"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J218" s="5"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -5629,10 +6035,11 @@
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J219" s="5"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -5642,10 +6049,11 @@
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
-      <c r="J220" s="23"/>
-      <c r="K220" s="23"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J220" s="5"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -5655,10 +6063,11 @@
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
-      <c r="J221" s="23"/>
-      <c r="K221" s="23"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J221" s="5"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -5668,10 +6077,11 @@
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
-      <c r="J222" s="23"/>
-      <c r="K222" s="23"/>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J222" s="5"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -5681,10 +6091,11 @@
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
-      <c r="J223" s="23"/>
-      <c r="K223" s="23"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J223" s="5"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -5694,10 +6105,11 @@
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
-      <c r="J224" s="23"/>
-      <c r="K224" s="23"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J224" s="5"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -5707,10 +6119,11 @@
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
-      <c r="J225" s="23"/>
-      <c r="K225" s="23"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J225" s="5"/>
+      <c r="K225" s="17"/>
+      <c r="L225" s="17"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -5720,10 +6133,11 @@
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
-      <c r="J226" s="23"/>
-      <c r="K226" s="23"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J226" s="5"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="17"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -5733,10 +6147,11 @@
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
-      <c r="J227" s="23"/>
-      <c r="K227" s="23"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J227" s="5"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="17"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -5746,10 +6161,11 @@
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
-      <c r="J228" s="23"/>
-      <c r="K228" s="23"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J228" s="5"/>
+      <c r="K228" s="17"/>
+      <c r="L228" s="17"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -5759,10 +6175,11 @@
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
-      <c r="J229" s="23"/>
-      <c r="K229" s="23"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J229" s="5"/>
+      <c r="K229" s="17"/>
+      <c r="L229" s="17"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -5772,10 +6189,11 @@
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
-      <c r="J230" s="23"/>
-      <c r="K230" s="23"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J230" s="5"/>
+      <c r="K230" s="17"/>
+      <c r="L230" s="17"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -5785,10 +6203,11 @@
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
-      <c r="J231" s="23"/>
-      <c r="K231" s="23"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J231" s="5"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="17"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -5798,10 +6217,11 @@
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
-      <c r="J232" s="23"/>
-      <c r="K232" s="23"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J232" s="5"/>
+      <c r="K232" s="17"/>
+      <c r="L232" s="17"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -5811,10 +6231,11 @@
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J233" s="5"/>
+      <c r="K233" s="17"/>
+      <c r="L233" s="17"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -5824,10 +6245,11 @@
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
-      <c r="J234" s="23"/>
-      <c r="K234" s="23"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J234" s="5"/>
+      <c r="K234" s="17"/>
+      <c r="L234" s="17"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -5837,10 +6259,11 @@
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J235" s="5"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -5850,10 +6273,11 @@
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
-      <c r="J236" s="23"/>
-      <c r="K236" s="23"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J236" s="5"/>
+      <c r="K236" s="17"/>
+      <c r="L236" s="17"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -5863,10 +6287,11 @@
       <c r="G237" s="5"/>
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
-      <c r="J237" s="23"/>
-      <c r="K237" s="23"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J237" s="5"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="17"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -5876,10 +6301,11 @@
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
-      <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J238" s="5"/>
+      <c r="K238" s="17"/>
+      <c r="L238" s="17"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -5889,10 +6315,11 @@
       <c r="G239" s="5"/>
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
-      <c r="J239" s="23"/>
-      <c r="K239" s="23"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J239" s="5"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -5902,10 +6329,11 @@
       <c r="G240" s="5"/>
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
-      <c r="J240" s="23"/>
-      <c r="K240" s="23"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J240" s="5"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -5915,10 +6343,11 @@
       <c r="G241" s="5"/>
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J241" s="5"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="17"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -5928,10 +6357,11 @@
       <c r="G242" s="5"/>
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
-      <c r="J242" s="23"/>
-      <c r="K242" s="23"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J242" s="5"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -5941,10 +6371,11 @@
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
-      <c r="J243" s="23"/>
-      <c r="K243" s="23"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J243" s="5"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -5954,10 +6385,11 @@
       <c r="G244" s="5"/>
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
-      <c r="J244" s="23"/>
-      <c r="K244" s="23"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J244" s="5"/>
+      <c r="K244" s="17"/>
+      <c r="L244" s="17"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -5967,10 +6399,11 @@
       <c r="G245" s="5"/>
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J245" s="5"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -5980,10 +6413,11 @@
       <c r="G246" s="5"/>
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
-      <c r="J246" s="23"/>
-      <c r="K246" s="23"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J246" s="5"/>
+      <c r="K246" s="17"/>
+      <c r="L246" s="17"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -5993,10 +6427,11 @@
       <c r="G247" s="5"/>
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
-      <c r="J247" s="23"/>
-      <c r="K247" s="23"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J247" s="5"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -6006,10 +6441,11 @@
       <c r="G248" s="5"/>
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
-      <c r="J248" s="23"/>
-      <c r="K248" s="23"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J248" s="5"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -6019,10 +6455,11 @@
       <c r="G249" s="5"/>
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
-      <c r="J249" s="23"/>
-      <c r="K249" s="23"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J249" s="5"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -6032,10 +6469,11 @@
       <c r="G250" s="5"/>
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
-      <c r="J250" s="23"/>
-      <c r="K250" s="23"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J250" s="5"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -6045,10 +6483,11 @@
       <c r="G251" s="5"/>
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
-      <c r="J251" s="23"/>
-      <c r="K251" s="23"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J251" s="5"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -6058,10 +6497,11 @@
       <c r="G252" s="5"/>
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
-      <c r="J252" s="23"/>
-      <c r="K252" s="23"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J252" s="5"/>
+      <c r="K252" s="17"/>
+      <c r="L252" s="17"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -6071,10 +6511,11 @@
       <c r="G253" s="5"/>
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
-      <c r="J253" s="23"/>
-      <c r="K253" s="23"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J253" s="5"/>
+      <c r="K253" s="17"/>
+      <c r="L253" s="17"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -6084,10 +6525,11 @@
       <c r="G254" s="5"/>
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
-      <c r="J254" s="23"/>
-      <c r="K254" s="23"/>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J254" s="5"/>
+      <c r="K254" s="17"/>
+      <c r="L254" s="17"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -6097,10 +6539,11 @@
       <c r="G255" s="5"/>
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
-      <c r="J255" s="23"/>
-      <c r="K255" s="23"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J255" s="5"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -6110,10 +6553,11 @@
       <c r="G256" s="5"/>
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
-      <c r="J256" s="23"/>
-      <c r="K256" s="23"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J256" s="5"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -6123,10 +6567,11 @@
       <c r="G257" s="5"/>
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
-      <c r="J257" s="23"/>
-      <c r="K257" s="23"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J257" s="5"/>
+      <c r="K257" s="17"/>
+      <c r="L257" s="17"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -6136,10 +6581,11 @@
       <c r="G258" s="5"/>
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
-      <c r="J258" s="23"/>
-      <c r="K258" s="23"/>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J258" s="5"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -6149,10 +6595,11 @@
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
-      <c r="J259" s="23"/>
-      <c r="K259" s="23"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J259" s="5"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -6162,10 +6609,11 @@
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
-      <c r="J260" s="23"/>
-      <c r="K260" s="23"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J260" s="5"/>
+      <c r="K260" s="17"/>
+      <c r="L260" s="17"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -6175,10 +6623,11 @@
       <c r="G261" s="5"/>
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
-      <c r="J261" s="23"/>
-      <c r="K261" s="23"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J261" s="5"/>
+      <c r="K261" s="17"/>
+      <c r="L261" s="17"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -6188,10 +6637,11 @@
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
-      <c r="J262" s="23"/>
-      <c r="K262" s="23"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J262" s="5"/>
+      <c r="K262" s="17"/>
+      <c r="L262" s="17"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -6201,10 +6651,11 @@
       <c r="G263" s="5"/>
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
-      <c r="J263" s="23"/>
-      <c r="K263" s="23"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J263" s="5"/>
+      <c r="K263" s="17"/>
+      <c r="L263" s="17"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -6214,10 +6665,11 @@
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
-      <c r="J264" s="23"/>
-      <c r="K264" s="23"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J264" s="5"/>
+      <c r="K264" s="17"/>
+      <c r="L264" s="17"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -6227,10 +6679,11 @@
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
-      <c r="J265" s="23"/>
-      <c r="K265" s="23"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J265" s="5"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -6240,10 +6693,11 @@
       <c r="G266" s="5"/>
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
-      <c r="J266" s="23"/>
-      <c r="K266" s="23"/>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J266" s="5"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -6253,10 +6707,11 @@
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
-      <c r="J267" s="23"/>
-      <c r="K267" s="23"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J267" s="5"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -6266,10 +6721,11 @@
       <c r="G268" s="5"/>
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
-      <c r="J268" s="23"/>
-      <c r="K268" s="23"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J268" s="5"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -6279,10 +6735,11 @@
       <c r="G269" s="5"/>
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
-      <c r="J269" s="23"/>
-      <c r="K269" s="23"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J269" s="5"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6292,10 +6749,11 @@
       <c r="G270" s="5"/>
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
-      <c r="J270" s="23"/>
-      <c r="K270" s="23"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J270" s="5"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6305,10 +6763,11 @@
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
-      <c r="J271" s="23"/>
-      <c r="K271" s="23"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J271" s="5"/>
+      <c r="K271" s="17"/>
+      <c r="L271" s="17"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6318,10 +6777,11 @@
       <c r="G272" s="5"/>
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
-      <c r="J272" s="23"/>
-      <c r="K272" s="23"/>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J272" s="5"/>
+      <c r="K272" s="17"/>
+      <c r="L272" s="17"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6331,10 +6791,11 @@
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
-      <c r="J273" s="23"/>
-      <c r="K273" s="23"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J273" s="5"/>
+      <c r="K273" s="17"/>
+      <c r="L273" s="17"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6344,10 +6805,11 @@
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
-      <c r="J274" s="23"/>
-      <c r="K274" s="23"/>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J274" s="5"/>
+      <c r="K274" s="17"/>
+      <c r="L274" s="17"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6357,10 +6819,11 @@
       <c r="G275" s="5"/>
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
-      <c r="J275" s="23"/>
-      <c r="K275" s="23"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J275" s="5"/>
+      <c r="K275" s="17"/>
+      <c r="L275" s="17"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6370,10 +6833,11 @@
       <c r="G276" s="5"/>
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
-      <c r="J276" s="23"/>
-      <c r="K276" s="23"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J276" s="5"/>
+      <c r="K276" s="17"/>
+      <c r="L276" s="17"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6383,10 +6847,11 @@
       <c r="G277" s="5"/>
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
-      <c r="J277" s="23"/>
-      <c r="K277" s="23"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J277" s="5"/>
+      <c r="K277" s="17"/>
+      <c r="L277" s="17"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6396,10 +6861,11 @@
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
-      <c r="J278" s="23"/>
-      <c r="K278" s="23"/>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J278" s="5"/>
+      <c r="K278" s="17"/>
+      <c r="L278" s="17"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6409,10 +6875,11 @@
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
-      <c r="J279" s="23"/>
-      <c r="K279" s="23"/>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J279" s="5"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6422,10 +6889,11 @@
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
-      <c r="J280" s="23"/>
-      <c r="K280" s="23"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J280" s="5"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6435,10 +6903,11 @@
       <c r="G281" s="5"/>
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
-      <c r="J281" s="23"/>
-      <c r="K281" s="23"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J281" s="5"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6448,10 +6917,11 @@
       <c r="G282" s="5"/>
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
-      <c r="J282" s="23"/>
-      <c r="K282" s="23"/>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J282" s="5"/>
+      <c r="K282" s="17"/>
+      <c r="L282" s="17"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6461,10 +6931,11 @@
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
-      <c r="J283" s="23"/>
-      <c r="K283" s="23"/>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J283" s="5"/>
+      <c r="K283" s="17"/>
+      <c r="L283" s="17"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6474,10 +6945,11 @@
       <c r="G284" s="5"/>
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
-      <c r="J284" s="23"/>
-      <c r="K284" s="23"/>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J284" s="5"/>
+      <c r="K284" s="17"/>
+      <c r="L284" s="17"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6487,10 +6959,11 @@
       <c r="G285" s="5"/>
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
-      <c r="J285" s="23"/>
-      <c r="K285" s="23"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J285" s="5"/>
+      <c r="K285" s="17"/>
+      <c r="L285" s="17"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6500,10 +6973,11 @@
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
-      <c r="J286" s="23"/>
-      <c r="K286" s="23"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J286" s="5"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6513,10 +6987,11 @@
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
-      <c r="J287" s="23"/>
-      <c r="K287" s="23"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J287" s="5"/>
+      <c r="K287" s="17"/>
+      <c r="L287" s="17"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -6526,10 +7001,11 @@
       <c r="G288" s="5"/>
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
-      <c r="J288" s="23"/>
-      <c r="K288" s="23"/>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J288" s="5"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -6539,10 +7015,11 @@
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
-      <c r="J289" s="23"/>
-      <c r="K289" s="23"/>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J289" s="5"/>
+      <c r="K289" s="17"/>
+      <c r="L289" s="17"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -6552,10 +7029,11 @@
       <c r="G290" s="5"/>
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
-      <c r="J290" s="23"/>
-      <c r="K290" s="23"/>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J290" s="5"/>
+      <c r="K290" s="17"/>
+      <c r="L290" s="17"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -6565,10 +7043,11 @@
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
-      <c r="J291" s="23"/>
-      <c r="K291" s="23"/>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J291" s="5"/>
+      <c r="K291" s="17"/>
+      <c r="L291" s="17"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -6578,10 +7057,11 @@
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
-      <c r="J292" s="23"/>
-      <c r="K292" s="23"/>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J292" s="5"/>
+      <c r="K292" s="17"/>
+      <c r="L292" s="17"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -6591,10 +7071,11 @@
       <c r="G293" s="5"/>
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
-      <c r="J293" s="23"/>
-      <c r="K293" s="23"/>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J293" s="5"/>
+      <c r="K293" s="17"/>
+      <c r="L293" s="17"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -6604,10 +7085,11 @@
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
-      <c r="J294" s="23"/>
-      <c r="K294" s="23"/>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J294" s="5"/>
+      <c r="K294" s="17"/>
+      <c r="L294" s="17"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -6617,10 +7099,11 @@
       <c r="G295" s="5"/>
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
-      <c r="J295" s="23"/>
-      <c r="K295" s="23"/>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J295" s="5"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -6630,10 +7113,11 @@
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
-      <c r="J296" s="23"/>
-      <c r="K296" s="23"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J296" s="5"/>
+      <c r="K296" s="17"/>
+      <c r="L296" s="17"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -6643,10 +7127,11 @@
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
-      <c r="J297" s="23"/>
-      <c r="K297" s="23"/>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J297" s="5"/>
+      <c r="K297" s="17"/>
+      <c r="L297" s="17"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -6656,10 +7141,11 @@
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
-      <c r="J298" s="23"/>
-      <c r="K298" s="23"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J298" s="5"/>
+      <c r="K298" s="17"/>
+      <c r="L298" s="17"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -6669,10 +7155,11 @@
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
-      <c r="J299" s="23"/>
-      <c r="K299" s="23"/>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J299" s="5"/>
+      <c r="K299" s="17"/>
+      <c r="L299" s="17"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -6682,10 +7169,11 @@
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
-      <c r="J300" s="23"/>
-      <c r="K300" s="23"/>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J300" s="5"/>
+      <c r="K300" s="17"/>
+      <c r="L300" s="17"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -6695,10 +7183,11 @@
       <c r="G301" s="5"/>
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
-      <c r="J301" s="23"/>
-      <c r="K301" s="23"/>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J301" s="5"/>
+      <c r="K301" s="17"/>
+      <c r="L301" s="17"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -6708,10 +7197,11 @@
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
-      <c r="J302" s="23"/>
-      <c r="K302" s="23"/>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J302" s="5"/>
+      <c r="K302" s="17"/>
+      <c r="L302" s="17"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -6721,10 +7211,11 @@
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
-      <c r="J303" s="23"/>
-      <c r="K303" s="23"/>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J303" s="5"/>
+      <c r="K303" s="17"/>
+      <c r="L303" s="17"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -6734,10 +7225,11 @@
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
-      <c r="J304" s="23"/>
-      <c r="K304" s="23"/>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J304" s="5"/>
+      <c r="K304" s="17"/>
+      <c r="L304" s="17"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -6747,10 +7239,11 @@
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
-      <c r="J305" s="23"/>
-      <c r="K305" s="23"/>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J305" s="5"/>
+      <c r="K305" s="17"/>
+      <c r="L305" s="17"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -6760,10 +7253,11 @@
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
-      <c r="J306" s="23"/>
-      <c r="K306" s="23"/>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J306" s="5"/>
+      <c r="K306" s="17"/>
+      <c r="L306" s="17"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -6773,10 +7267,11 @@
       <c r="G307" s="5"/>
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
-      <c r="J307" s="23"/>
-      <c r="K307" s="23"/>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J307" s="5"/>
+      <c r="K307" s="17"/>
+      <c r="L307" s="17"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -6786,10 +7281,11 @@
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
-      <c r="J308" s="23"/>
-      <c r="K308" s="23"/>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J308" s="5"/>
+      <c r="K308" s="17"/>
+      <c r="L308" s="17"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -6799,10 +7295,11 @@
       <c r="G309" s="5"/>
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
-      <c r="J309" s="23"/>
-      <c r="K309" s="23"/>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J309" s="5"/>
+      <c r="K309" s="17"/>
+      <c r="L309" s="17"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -6812,10 +7309,11 @@
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
-      <c r="J310" s="23"/>
-      <c r="K310" s="23"/>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J310" s="5"/>
+      <c r="K310" s="17"/>
+      <c r="L310" s="17"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -6825,10 +7323,11 @@
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
-      <c r="J311" s="23"/>
-      <c r="K311" s="23"/>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J311" s="5"/>
+      <c r="K311" s="17"/>
+      <c r="L311" s="17"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -6838,10 +7337,11 @@
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
-      <c r="J312" s="23"/>
-      <c r="K312" s="23"/>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J312" s="5"/>
+      <c r="K312" s="17"/>
+      <c r="L312" s="17"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -6851,10 +7351,11 @@
       <c r="G313" s="5"/>
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
-      <c r="J313" s="23"/>
-      <c r="K313" s="23"/>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J313" s="5"/>
+      <c r="K313" s="17"/>
+      <c r="L313" s="17"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -6864,10 +7365,11 @@
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
-      <c r="J314" s="23"/>
-      <c r="K314" s="23"/>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J314" s="5"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -6877,10 +7379,11 @@
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
-      <c r="J315" s="23"/>
-      <c r="K315" s="23"/>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J315" s="5"/>
+      <c r="K315" s="17"/>
+      <c r="L315" s="17"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -6890,10 +7393,11 @@
       <c r="G316" s="5"/>
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
-      <c r="J316" s="23"/>
-      <c r="K316" s="23"/>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J316" s="5"/>
+      <c r="K316" s="17"/>
+      <c r="L316" s="17"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -6903,10 +7407,11 @@
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
-      <c r="J317" s="23"/>
-      <c r="K317" s="23"/>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J317" s="5"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -6916,10 +7421,11 @@
       <c r="G318" s="5"/>
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
-      <c r="J318" s="23"/>
-      <c r="K318" s="23"/>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J318" s="5"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -6929,10 +7435,11 @@
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
-      <c r="J319" s="23"/>
-      <c r="K319" s="23"/>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J319" s="5"/>
+      <c r="K319" s="17"/>
+      <c r="L319" s="17"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -6942,8 +7449,9 @@
       <c r="G320" s="5"/>
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
-      <c r="J320" s="23"/>
-      <c r="K320" s="23"/>
+      <c r="J320" s="5"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6961,14 +7469,14 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ThisWorkbook.openUI">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>13</xdr:col>
-                    <xdr:colOff>323850</xdr:colOff>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>324196</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>58189</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>15</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:col>16</xdr:col>
+                    <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6992,97 +7500,97 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="13.1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
-    </row>
-    <row r="4" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>115200</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
+    <row r="10" spans="2:13" ht="13.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="2:13" ht="13.1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7101,7 +7609,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="28" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D28" s="1"/>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE57C686-5C36-4A68-9AD5-078144EA4743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2371AD6-2012-46E4-8643-33B12D863733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Previous Port:</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>class</t>
+  </si>
+  <si>
+    <t>class2</t>
   </si>
 </sst>
 </file>
@@ -302,13 +305,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>14</xdr:col>
+          <xdr:col>15</xdr:col>
           <xdr:colOff>324196</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>58189</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>16</xdr:col>
+          <xdr:col>17</xdr:col>
           <xdr:colOff>548640</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -743,29 +746,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L320"/>
+  <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T76" sqref="T76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.75" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="257" width="9.125" customWidth="1"/>
+    <col min="3" max="4" width="11" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="258" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="13.1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -775,35 +778,38 @@
       <c r="C1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>0</v>
       </c>
@@ -814,34 +820,37 @@
         <v>4</v>
       </c>
       <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
         <v>-44</v>
       </c>
-      <c r="E2" s="6">
+      <c r="F2" s="6">
         <v>-68</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>-79</v>
       </c>
-      <c r="G2" s="6">
-        <v>-99</v>
-      </c>
       <c r="H2" s="6">
+        <v>-99</v>
+      </c>
+      <c r="I2" s="6">
         <v>-76</v>
       </c>
-      <c r="I2" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="J2" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K2" s="4">
         <v>-83</v>
       </c>
-      <c r="K2" s="17">
+      <c r="L2" s="17">
         <v>-63</v>
       </c>
-      <c r="L2" s="17">
+      <c r="M2" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -851,35 +860,38 @@
       <c r="C3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
         <v>-42</v>
       </c>
-      <c r="E3" s="10">
-        <v>-99</v>
-      </c>
       <c r="F3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G3" s="10">
         <v>-76</v>
       </c>
-      <c r="G3" s="10">
-        <v>-99</v>
-      </c>
       <c r="H3" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I3" s="10">
         <v>-70</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>-53</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>-74</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>-54</v>
       </c>
-      <c r="L3" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -890,34 +902,37 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
         <v>-42</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F4" s="6">
         <v>-57</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>-71</v>
       </c>
-      <c r="G4" s="10">
-        <v>-99</v>
-      </c>
       <c r="H4" s="10">
         <v>-99</v>
       </c>
       <c r="I4" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J4" s="10">
         <v>-55</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>-77</v>
       </c>
-      <c r="K4" s="17">
-        <v>-99</v>
-      </c>
       <c r="L4" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -928,34 +943,37 @@
         <v>4</v>
       </c>
       <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
         <v>-43</v>
       </c>
-      <c r="E5" s="6">
-        <v>-99</v>
-      </c>
       <c r="F5" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G5" s="6">
         <v>-80</v>
       </c>
-      <c r="G5" s="10">
-        <v>-99</v>
-      </c>
       <c r="H5" s="10">
         <v>-99</v>
       </c>
       <c r="I5" s="10">
         <v>-99</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K5" s="5">
         <v>-72</v>
       </c>
-      <c r="K5" s="17">
-        <v>-99</v>
-      </c>
       <c r="L5" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M5" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>0</v>
       </c>
@@ -966,34 +984,37 @@
         <v>4</v>
       </c>
       <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
         <v>-45</v>
       </c>
-      <c r="E6" s="6">
-        <v>-99</v>
-      </c>
       <c r="F6" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G6" s="6">
         <v>-75</v>
       </c>
-      <c r="G6" s="10">
-        <v>-99</v>
-      </c>
       <c r="H6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I6" s="10">
         <v>-68</v>
       </c>
-      <c r="I6" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="J6" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K6" s="5">
         <v>-72</v>
       </c>
-      <c r="K6" s="17">
-        <v>-99</v>
-      </c>
       <c r="L6" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>0</v>
       </c>
@@ -1004,34 +1025,37 @@
         <v>4</v>
       </c>
       <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
         <v>-43</v>
       </c>
-      <c r="E7" s="6">
-        <v>-99</v>
-      </c>
       <c r="F7" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G7" s="6">
         <v>-74</v>
       </c>
-      <c r="G7" s="10">
-        <v>-99</v>
-      </c>
       <c r="H7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I7" s="10">
         <v>-70</v>
       </c>
-      <c r="I7" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K7" s="5">
         <v>-80</v>
       </c>
-      <c r="K7" s="17">
-        <v>-99</v>
-      </c>
       <c r="L7" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>0</v>
       </c>
@@ -1042,34 +1066,37 @@
         <v>4</v>
       </c>
       <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
         <v>-38</v>
       </c>
-      <c r="E8" s="6">
-        <v>-99</v>
-      </c>
       <c r="F8" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G8" s="6">
         <v>-77</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>-85</v>
       </c>
-      <c r="H8" s="10">
-        <v>-99</v>
-      </c>
       <c r="I8" s="10">
+        <v>-99</v>
+      </c>
+      <c r="J8" s="10">
         <v>-61</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>-79</v>
       </c>
-      <c r="K8" s="17">
-        <v>-99</v>
-      </c>
       <c r="L8" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>0</v>
       </c>
@@ -1079,35 +1106,38 @@
       <c r="C9" s="6">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <v>-39</v>
       </c>
-      <c r="E9" s="11">
-        <v>-99</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="F9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="G9" s="7">
         <v>-77</v>
       </c>
-      <c r="G9" s="11">
-        <v>-99</v>
-      </c>
       <c r="H9" s="11">
+        <v>-99</v>
+      </c>
+      <c r="I9" s="11">
         <v>-73</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <v>-55</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>-72</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>-56</v>
       </c>
-      <c r="L9" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>0</v>
       </c>
@@ -1118,34 +1148,37 @@
         <v>4</v>
       </c>
       <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
         <v>-42</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>-66</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>-79</v>
       </c>
-      <c r="G10" s="7">
-        <v>-99</v>
-      </c>
       <c r="H10" s="7">
+        <v>-99</v>
+      </c>
+      <c r="I10" s="7">
         <v>-71</v>
       </c>
-      <c r="I10" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="J10" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K10" s="5">
         <v>-73</v>
       </c>
-      <c r="K10" s="17">
-        <v>-99</v>
-      </c>
       <c r="L10" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>0</v>
       </c>
@@ -1155,35 +1188,38 @@
       <c r="C11" s="6">
         <v>4</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
         <v>-39</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>-63</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>-76</v>
       </c>
-      <c r="G11" s="10">
-        <v>-99</v>
-      </c>
       <c r="H11" s="10">
         <v>-99</v>
       </c>
       <c r="I11" s="10">
         <v>-99</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K11" s="5">
         <v>-83</v>
-      </c>
-      <c r="K11" s="17">
-        <v>-54</v>
       </c>
       <c r="L11" s="17">
         <v>-54</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="17">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -1193,35 +1229,38 @@
       <c r="C12" s="6">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
         <v>-38</v>
       </c>
-      <c r="E12" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G12" s="6">
         <v>-76</v>
       </c>
-      <c r="G12" s="10">
-        <v>-99</v>
-      </c>
       <c r="H12" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I12" s="10">
         <v>-70</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <v>-51</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>-77</v>
       </c>
-      <c r="K12" s="17">
-        <v>-99</v>
-      </c>
       <c r="L12" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M12" s="17">
         <v>-52</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>0</v>
       </c>
@@ -1231,35 +1270,38 @@
       <c r="C13" s="6">
         <v>4</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
         <v>-41</v>
       </c>
-      <c r="E13" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G13" s="6">
         <v>-72</v>
       </c>
-      <c r="G13" s="10">
-        <v>-99</v>
-      </c>
       <c r="H13" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I13" s="10">
         <v>-72</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <v>-50</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>-70</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>-51</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>-52</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -1269,35 +1311,38 @@
       <c r="C14" s="6">
         <v>4</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
         <v>-46</v>
       </c>
-      <c r="E14" s="6">
-        <v>-99</v>
-      </c>
       <c r="F14" s="6">
+        <v>-99</v>
+      </c>
+      <c r="G14" s="6">
         <v>-82</v>
       </c>
-      <c r="G14" s="10">
-        <v>-99</v>
-      </c>
       <c r="H14" s="10">
         <v>-99</v>
       </c>
       <c r="I14" s="10">
         <v>-99</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K14" s="5">
         <v>-78</v>
       </c>
-      <c r="K14" s="17">
-        <v>-99</v>
-      </c>
       <c r="L14" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M14" s="17">
         <v>-59</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>0</v>
       </c>
@@ -1307,35 +1352,38 @@
       <c r="C15" s="6">
         <v>4</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
         <v>-37</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F15" s="10">
         <v>-60</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>-74</v>
       </c>
-      <c r="G15" s="10">
-        <v>-99</v>
-      </c>
       <c r="H15" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I15" s="10">
         <v>-73</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J15" s="10">
         <v>-58</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>-80</v>
-      </c>
-      <c r="K15" s="17">
-        <v>-59</v>
       </c>
       <c r="L15" s="17">
         <v>-59</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="17">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>0</v>
       </c>
@@ -1345,35 +1393,38 @@
       <c r="C16" s="6">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
         <v>-58</v>
       </c>
-      <c r="E16" s="10">
-        <v>-99</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="G16" s="6">
         <v>-74</v>
       </c>
-      <c r="G16" s="10">
-        <v>-99</v>
-      </c>
       <c r="H16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="I16" s="10">
         <v>-70</v>
       </c>
-      <c r="I16" s="10">
-        <v>-99</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="J16" s="10">
+        <v>-99</v>
+      </c>
+      <c r="K16" s="5">
         <v>-75</v>
       </c>
-      <c r="K16" s="17">
-        <v>-99</v>
-      </c>
       <c r="L16" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -1383,35 +1434,38 @@
       <c r="C17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
         <v>-48</v>
       </c>
-      <c r="E17" s="5">
+      <c r="F17" s="5">
         <v>-63</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>-77</v>
       </c>
-      <c r="G17" s="5">
-        <v>-99</v>
-      </c>
       <c r="H17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I17" s="5">
         <v>-57</v>
       </c>
-      <c r="I17" s="5">
-        <v>-99</v>
-      </c>
       <c r="J17" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K17" s="5">
         <v>-71</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>-54</v>
       </c>
-      <c r="L17" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>0</v>
       </c>
@@ -1421,35 +1475,38 @@
       <c r="C18" s="6">
         <v>4</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
         <v>-44</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>-56</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>-74</v>
       </c>
-      <c r="G18" s="5">
-        <v>-99</v>
-      </c>
       <c r="H18" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I18" s="5">
         <v>-65</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>-64</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>-73</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>-62</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>-64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -1459,35 +1516,38 @@
       <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <v>-32</v>
       </c>
-      <c r="E19" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G19" s="4">
         <v>-77</v>
       </c>
-      <c r="G19" s="5">
-        <v>-99</v>
-      </c>
       <c r="H19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I19" s="5">
         <v>-64</v>
       </c>
-      <c r="I19" s="5">
-        <v>-99</v>
-      </c>
       <c r="J19" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K19" s="5">
         <v>-71</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>-56</v>
       </c>
-      <c r="L19" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -1497,35 +1557,38 @@
       <c r="C20" s="6">
         <v>4</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>-40</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5">
         <v>-64</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>-79</v>
       </c>
-      <c r="G20" s="5">
-        <v>-99</v>
-      </c>
       <c r="H20" s="5">
         <v>-99</v>
       </c>
       <c r="I20" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J20" s="5">
         <v>-56</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>-74</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>-58</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -1535,35 +1598,38 @@
       <c r="C21" s="6">
         <v>4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <v>-37</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5">
         <v>-67</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>-78</v>
       </c>
-      <c r="G21" s="5">
-        <v>-99</v>
-      </c>
       <c r="H21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I21" s="5">
         <v>-71</v>
       </c>
-      <c r="I21" s="5">
-        <v>-99</v>
-      </c>
       <c r="J21" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K21" s="5">
         <v>-76</v>
       </c>
-      <c r="K21" s="17">
-        <v>-99</v>
-      </c>
       <c r="L21" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>0</v>
       </c>
@@ -1573,35 +1639,38 @@
       <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5">
         <v>-39</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>-58</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>-76</v>
       </c>
-      <c r="G22" s="5">
-        <v>-99</v>
-      </c>
       <c r="H22" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I22" s="5">
         <v>-69</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>-57</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>-78</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>-56</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>0</v>
       </c>
@@ -1611,35 +1680,38 @@
       <c r="C23" s="6">
         <v>4</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
         <v>-42</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>-63</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>-76</v>
       </c>
-      <c r="G23" s="5">
-        <v>-99</v>
-      </c>
       <c r="H23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I23" s="5">
         <v>-71</v>
       </c>
-      <c r="I23" s="5">
-        <v>-99</v>
-      </c>
       <c r="J23" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K23" s="5">
         <v>-73</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>-55</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>0</v>
       </c>
@@ -1649,35 +1721,38 @@
       <c r="C24" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
         <v>-39</v>
       </c>
-      <c r="E24" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G24" s="4">
         <v>-78</v>
       </c>
-      <c r="G24" s="5">
-        <v>-99</v>
-      </c>
       <c r="H24" s="5">
         <v>-99</v>
       </c>
       <c r="I24" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J24" s="5">
         <v>-50</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>-75</v>
-      </c>
-      <c r="K24" s="17">
-        <v>-50</v>
       </c>
       <c r="L24" s="17">
         <v>-50</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="17">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>0</v>
       </c>
@@ -1687,35 +1762,38 @@
       <c r="C25" s="6">
         <v>4</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
         <v>-43</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>-58</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>-70</v>
       </c>
-      <c r="G25" s="5">
-        <v>-99</v>
-      </c>
       <c r="H25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I25" s="5">
         <v>-67</v>
       </c>
-      <c r="I25" s="5">
-        <v>-99</v>
-      </c>
       <c r="J25" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K25" s="5">
         <v>-77</v>
       </c>
-      <c r="K25" s="17">
-        <v>-99</v>
-      </c>
       <c r="L25" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>0</v>
       </c>
@@ -1725,35 +1803,38 @@
       <c r="C26" s="6">
         <v>4</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
         <v>-49</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>-57</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>-74</v>
       </c>
-      <c r="G26" s="5">
-        <v>-99</v>
-      </c>
       <c r="H26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I26" s="5">
         <v>-67</v>
       </c>
-      <c r="I26" s="5">
-        <v>-99</v>
-      </c>
       <c r="J26" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K26" s="5">
         <v>-74</v>
       </c>
-      <c r="K26" s="17">
-        <v>-99</v>
-      </c>
       <c r="L26" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M26" s="17">
         <v>-63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>0</v>
       </c>
@@ -1763,35 +1844,38 @@
       <c r="C27" s="6">
         <v>4</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
         <v>-38</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>-55</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>-70</v>
       </c>
-      <c r="G27" s="5">
-        <v>-99</v>
-      </c>
       <c r="H27" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I27" s="5">
         <v>-68</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>-61</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>-71</v>
       </c>
-      <c r="K27" s="17">
-        <v>-99</v>
-      </c>
       <c r="L27" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -1801,35 +1885,38 @@
       <c r="C28" s="6">
         <v>4</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
         <v>-34</v>
       </c>
-      <c r="E28" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G28" s="4">
         <v>-74</v>
       </c>
-      <c r="G28" s="5">
-        <v>-99</v>
-      </c>
       <c r="H28" s="5">
         <v>-99</v>
       </c>
       <c r="I28" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J28" s="5">
         <v>-60</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>-75</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>-59</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>0</v>
       </c>
@@ -1839,35 +1926,38 @@
       <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
         <v>-39</v>
       </c>
-      <c r="E29" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G29" s="4">
         <v>-73</v>
       </c>
-      <c r="G29" s="5">
-        <v>-99</v>
-      </c>
       <c r="H29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I29" s="5">
         <v>-68</v>
       </c>
-      <c r="I29" s="5">
-        <v>-99</v>
-      </c>
       <c r="J29" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K29" s="5">
         <v>-71</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>-60</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>-62</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -1877,35 +1967,38 @@
       <c r="C30" s="6">
         <v>4</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
         <v>-43</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>-58</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>-78</v>
       </c>
-      <c r="G30" s="5">
-        <v>-99</v>
-      </c>
       <c r="H30" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I30" s="5">
         <v>-68</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>-63</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>-74</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>-63</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>0</v>
       </c>
@@ -1915,35 +2008,38 @@
       <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <v>-39</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5">
         <v>-62</v>
       </c>
-      <c r="F31" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>-99</v>
       </c>
       <c r="H31" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I31" s="5">
         <v>-61</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <v>-58</v>
       </c>
-      <c r="J31" s="5">
+      <c r="K31" s="5">
         <v>-70</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <v>-59</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>0</v>
       </c>
@@ -1953,35 +2049,38 @@
       <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="D32" s="5">
-        <v>-99</v>
+      <c r="D32" s="6">
+        <v>1</v>
       </c>
       <c r="E32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F32" s="5">
         <v>-61</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>-77</v>
       </c>
-      <c r="G32" s="5">
-        <v>-99</v>
-      </c>
       <c r="H32" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I32" s="5">
         <v>-62</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>-66</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>-73</v>
       </c>
-      <c r="K32" s="17">
+      <c r="L32" s="17">
         <v>-61</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>-62</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>0</v>
       </c>
@@ -1991,35 +2090,38 @@
       <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <v>-35</v>
       </c>
-      <c r="E33" s="5">
-        <v>-99</v>
-      </c>
       <c r="F33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G33" s="5">
         <v>-76</v>
       </c>
-      <c r="G33" s="5">
-        <v>-99</v>
-      </c>
       <c r="H33" s="5">
         <v>-99</v>
       </c>
       <c r="I33" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J33" s="5">
         <v>-64</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>-74</v>
       </c>
-      <c r="K33" s="17">
-        <v>-99</v>
-      </c>
       <c r="L33" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>0</v>
       </c>
@@ -2029,35 +2131,38 @@
       <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
         <v>-39</v>
       </c>
-      <c r="E34" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G34" s="4">
         <v>-78</v>
       </c>
-      <c r="G34" s="5">
-        <v>-99</v>
-      </c>
       <c r="H34" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I34" s="5">
         <v>-73</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>-66</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>-74</v>
       </c>
-      <c r="K34" s="17">
+      <c r="L34" s="17">
         <v>-63</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>0</v>
       </c>
@@ -2067,18 +2172,18 @@
       <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
         <v>-41</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>-63</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>-77</v>
       </c>
-      <c r="G35" s="5">
-        <v>-99</v>
-      </c>
       <c r="H35" s="5">
         <v>-99</v>
       </c>
@@ -2086,16 +2191,19 @@
         <v>-99</v>
       </c>
       <c r="J35" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K35" s="5">
         <v>-78</v>
       </c>
-      <c r="K35" s="17">
+      <c r="L35" s="17">
         <v>-58</v>
       </c>
-      <c r="L35" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -2105,35 +2213,38 @@
       <c r="C36" s="6">
         <v>4</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
         <v>-42</v>
       </c>
-      <c r="E36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G36" s="4">
         <v>-82</v>
       </c>
-      <c r="G36" s="5">
-        <v>-99</v>
-      </c>
       <c r="H36" s="5">
         <v>-99</v>
       </c>
       <c r="I36" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J36" s="5">
         <v>-67</v>
       </c>
-      <c r="J36" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K36" s="17">
+      <c r="K36" s="5">
         <v>-99</v>
       </c>
       <c r="L36" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M36" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -2143,35 +2254,38 @@
       <c r="C37" s="6">
         <v>4</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
         <v>-35</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5">
         <v>-68</v>
       </c>
-      <c r="F37" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="G37" s="4">
         <v>-99</v>
       </c>
       <c r="H37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I37" s="5">
         <v>-73</v>
       </c>
-      <c r="I37" s="5">
-        <v>-99</v>
-      </c>
       <c r="J37" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K37" s="5">
         <v>-78</v>
       </c>
-      <c r="K37" s="17">
-        <v>-99</v>
-      </c>
       <c r="L37" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M37" s="17">
         <v>-64</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -2181,35 +2295,38 @@
       <c r="C38" s="6">
         <v>4</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
         <v>-42</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>-63</v>
       </c>
-      <c r="F38" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <v>-99</v>
       </c>
       <c r="H38" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I38" s="5">
         <v>-69</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>-59</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>-78</v>
       </c>
-      <c r="K38" s="17">
+      <c r="L38" s="17">
         <v>-61</v>
       </c>
-      <c r="L38" s="17">
+      <c r="M38" s="17">
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -2219,35 +2336,38 @@
       <c r="C39" s="6">
         <v>4</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="5">
         <v>-48</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>-58</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>-78</v>
       </c>
-      <c r="G39" s="5">
-        <v>-99</v>
-      </c>
       <c r="H39" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I39" s="5">
         <v>-74</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>-56</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>-80</v>
       </c>
-      <c r="K39" s="17">
-        <v>-99</v>
-      </c>
       <c r="L39" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M39" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -2257,35 +2377,38 @@
       <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
         <v>-44</v>
       </c>
-      <c r="E40" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F40" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G40" s="4">
         <v>-99</v>
       </c>
       <c r="H40" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I40" s="5">
         <v>-71</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>-58</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>-76</v>
       </c>
-      <c r="K40" s="17">
+      <c r="L40" s="17">
         <v>-54</v>
       </c>
-      <c r="L40" s="17">
+      <c r="M40" s="17">
         <v>-53</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -2295,35 +2418,38 @@
       <c r="C41" s="6">
         <v>4</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
         <v>-42</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>-60</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>-81</v>
       </c>
-      <c r="G41" s="5">
-        <v>-99</v>
-      </c>
       <c r="H41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I41" s="5">
         <v>-68</v>
       </c>
-      <c r="I41" s="5">
-        <v>-99</v>
-      </c>
       <c r="J41" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K41" s="5">
         <v>-74</v>
       </c>
-      <c r="K41" s="17">
+      <c r="L41" s="17">
         <v>-55</v>
       </c>
-      <c r="L41" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -2333,18 +2459,18 @@
       <c r="C42" s="6">
         <v>4</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="5">
         <v>-37</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5">
         <v>-67</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>-76</v>
       </c>
-      <c r="G42" s="5">
-        <v>-99</v>
-      </c>
       <c r="H42" s="5">
         <v>-99</v>
       </c>
@@ -2352,16 +2478,19 @@
         <v>-99</v>
       </c>
       <c r="J42" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K42" s="5">
         <v>-73</v>
       </c>
-      <c r="K42" s="17">
-        <v>-99</v>
-      </c>
       <c r="L42" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -2371,35 +2500,38 @@
       <c r="C43" s="6">
         <v>4</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
         <v>-49</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>-58</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>-74</v>
       </c>
-      <c r="G43" s="5">
-        <v>-99</v>
-      </c>
       <c r="H43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I43" s="5">
         <v>-70</v>
       </c>
-      <c r="I43" s="5">
-        <v>-99</v>
-      </c>
       <c r="J43" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K43" s="5">
         <v>-71</v>
       </c>
-      <c r="K43" s="17">
+      <c r="L43" s="17">
         <v>-62</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -2409,35 +2541,38 @@
       <c r="C44" s="6">
         <v>4</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
         <v>-43</v>
       </c>
-      <c r="E44" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F44" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G44" s="4">
         <v>-99</v>
       </c>
       <c r="H44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I44" s="5">
         <v>-70</v>
       </c>
-      <c r="I44" s="5">
-        <v>-99</v>
-      </c>
       <c r="J44" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K44" s="5">
         <v>-73</v>
       </c>
-      <c r="K44" s="17">
+      <c r="L44" s="17">
         <v>-61</v>
       </c>
-      <c r="L44" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -2447,16 +2582,16 @@
       <c r="C45" s="6">
         <v>4</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5">
         <v>-41</v>
       </c>
-      <c r="E45" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F45" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F45" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G45" s="4">
         <v>-99</v>
       </c>
       <c r="H45" s="5">
@@ -2468,14 +2603,17 @@
       <c r="J45" s="5">
         <v>-99</v>
       </c>
-      <c r="K45" s="17">
+      <c r="K45" s="5">
         <v>-99</v>
       </c>
       <c r="L45" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>0</v>
       </c>
@@ -2485,35 +2623,38 @@
       <c r="C46" s="6">
         <v>4</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
         <v>-39</v>
       </c>
-      <c r="E46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="F46" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G46" s="4">
         <v>-99</v>
       </c>
       <c r="H46" s="5">
         <v>-99</v>
       </c>
       <c r="I46" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J46" s="5">
         <v>-60</v>
       </c>
-      <c r="J46" s="5">
-        <v>-99</v>
-      </c>
-      <c r="K46" s="17">
+      <c r="K46" s="5">
         <v>-99</v>
       </c>
       <c r="L46" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>0</v>
       </c>
@@ -2523,35 +2664,38 @@
       <c r="C47" s="6">
         <v>4</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
         <v>-36</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>-64</v>
       </c>
-      <c r="F47" s="4">
-        <v>-99</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="G47" s="4">
         <v>-99</v>
       </c>
       <c r="H47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I47" s="5">
         <v>-70</v>
       </c>
-      <c r="I47" s="5">
-        <v>-99</v>
-      </c>
       <c r="J47" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K47" s="5">
         <v>-71</v>
       </c>
-      <c r="K47" s="17">
+      <c r="L47" s="17">
         <v>-62</v>
       </c>
-      <c r="L47" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -2561,8 +2705,8 @@
       <c r="C48" s="6">
         <v>4</v>
       </c>
-      <c r="D48" s="5">
-        <v>-99</v>
+      <c r="D48" s="6">
+        <v>1</v>
       </c>
       <c r="E48" s="5">
         <v>-99</v>
@@ -2574,22 +2718,25 @@
         <v>-99</v>
       </c>
       <c r="H48" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I48" s="5">
         <v>-66</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>-60</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>-72</v>
       </c>
-      <c r="K48" s="17">
+      <c r="L48" s="17">
         <v>-60</v>
       </c>
-      <c r="L48" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -2599,35 +2746,38 @@
       <c r="C49" s="6">
         <v>4</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
         <v>-46</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>-63</v>
       </c>
-      <c r="F49" s="5">
-        <v>-99</v>
-      </c>
       <c r="G49" s="5">
         <v>-99</v>
       </c>
       <c r="H49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I49" s="5">
         <v>-67</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <v>-66</v>
       </c>
-      <c r="J49" s="5">
+      <c r="K49" s="5">
         <v>-77</v>
       </c>
-      <c r="K49" s="17">
+      <c r="L49" s="17">
         <v>-65</v>
       </c>
-      <c r="L49" s="17">
+      <c r="M49" s="17">
         <v>-66</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>0</v>
       </c>
@@ -2637,15 +2787,15 @@
       <c r="C50" s="6">
         <v>4</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
         <v>-39</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>-56</v>
       </c>
-      <c r="F50" s="5">
-        <v>-99</v>
-      </c>
       <c r="G50" s="5">
         <v>-99</v>
       </c>
@@ -2656,16 +2806,19 @@
         <v>-99</v>
       </c>
       <c r="J50" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K50" s="5">
         <v>-77</v>
       </c>
-      <c r="K50" s="17">
-        <v>-99</v>
-      </c>
       <c r="L50" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>0</v>
       </c>
@@ -2675,35 +2828,38 @@
       <c r="C51" s="6">
         <v>4</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
         <v>-37</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>-54</v>
       </c>
-      <c r="F51" s="5">
-        <v>-99</v>
-      </c>
       <c r="G51" s="5">
         <v>-99</v>
       </c>
       <c r="H51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I51" s="5">
         <v>-59</v>
       </c>
-      <c r="I51" s="5">
-        <v>-99</v>
-      </c>
       <c r="J51" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K51" s="5">
         <v>-77</v>
       </c>
-      <c r="K51" s="17">
-        <v>-99</v>
-      </c>
       <c r="L51" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>0</v>
       </c>
@@ -2713,12 +2869,12 @@
       <c r="C52" s="6">
         <v>4</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
         <v>-41</v>
       </c>
-      <c r="E52" s="5">
-        <v>-99</v>
-      </c>
       <c r="F52" s="5">
         <v>-99</v>
       </c>
@@ -2726,22 +2882,25 @@
         <v>-99</v>
       </c>
       <c r="H52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I52" s="5">
         <v>-60</v>
       </c>
-      <c r="I52" s="5">
-        <v>-99</v>
-      </c>
       <c r="J52" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K52" s="5">
         <v>-73</v>
       </c>
-      <c r="K52" s="17">
-        <v>-99</v>
-      </c>
       <c r="L52" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>0</v>
       </c>
@@ -2751,35 +2910,38 @@
       <c r="C53" s="6">
         <v>4</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
         <v>-38</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>-54</v>
       </c>
-      <c r="F53" s="5">
-        <v>-99</v>
-      </c>
       <c r="G53" s="5">
         <v>-99</v>
       </c>
       <c r="H53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I53" s="5">
         <v>-60</v>
       </c>
-      <c r="I53" s="5">
-        <v>-99</v>
-      </c>
       <c r="J53" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K53" s="5">
         <v>-70</v>
       </c>
-      <c r="K53" s="17">
+      <c r="L53" s="17">
         <v>-59</v>
       </c>
-      <c r="L53" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>0</v>
       </c>
@@ -2789,35 +2951,38 @@
       <c r="C54" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
         <v>-49</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5">
         <v>-61</v>
       </c>
-      <c r="F54" s="5">
+      <c r="G54" s="5">
         <v>-75</v>
       </c>
-      <c r="G54" s="5">
-        <v>-99</v>
-      </c>
       <c r="H54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I54" s="5">
         <v>-66</v>
       </c>
-      <c r="I54" s="5">
-        <v>-99</v>
-      </c>
       <c r="J54" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K54" s="5">
         <v>-81</v>
       </c>
-      <c r="K54" s="17">
-        <v>-99</v>
-      </c>
       <c r="L54" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>0</v>
       </c>
@@ -2827,35 +2992,38 @@
       <c r="C55" s="6">
         <v>4</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
         <v>-46</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>-61</v>
       </c>
-      <c r="F55" s="5">
+      <c r="G55" s="5">
         <v>-73</v>
       </c>
-      <c r="G55" s="5">
-        <v>-99</v>
-      </c>
       <c r="H55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I55" s="5">
         <v>-68</v>
       </c>
-      <c r="I55" s="5">
-        <v>-99</v>
-      </c>
       <c r="J55" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K55" s="5">
         <v>-73</v>
       </c>
-      <c r="K55" s="17">
-        <v>-99</v>
-      </c>
       <c r="L55" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M55" s="17">
         <v>-61</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>0</v>
       </c>
@@ -2865,15 +3033,15 @@
       <c r="C56" s="6">
         <v>4</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
         <v>-47</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>-59</v>
       </c>
-      <c r="F56" s="5">
-        <v>-99</v>
-      </c>
       <c r="G56" s="5">
         <v>-99</v>
       </c>
@@ -2884,16 +3052,19 @@
         <v>-99</v>
       </c>
       <c r="J56" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K56" s="5">
         <v>-71</v>
       </c>
-      <c r="K56" s="17">
-        <v>-99</v>
-      </c>
       <c r="L56" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>0</v>
       </c>
@@ -2903,15 +3074,15 @@
       <c r="C57" s="6">
         <v>4</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
         <v>-37</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>-60</v>
       </c>
-      <c r="F57" s="5">
-        <v>-99</v>
-      </c>
       <c r="G57" s="5">
         <v>-99</v>
       </c>
@@ -2922,16 +3093,19 @@
         <v>-99</v>
       </c>
       <c r="J57" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K57" s="5">
         <v>-75</v>
       </c>
-      <c r="K57" s="17">
+      <c r="L57" s="17">
         <v>-64</v>
       </c>
-      <c r="L57" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>0</v>
       </c>
@@ -2941,35 +3115,38 @@
       <c r="C58" s="6">
         <v>4</v>
       </c>
-      <c r="D58" s="5">
-        <v>-99</v>
+      <c r="D58" s="6">
+        <v>1</v>
       </c>
       <c r="E58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F58" s="5">
         <v>-59</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>-76</v>
       </c>
-      <c r="G58" s="5">
-        <v>-99</v>
-      </c>
       <c r="H58" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I58" s="5">
         <v>-73</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>-58</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>-73</v>
       </c>
-      <c r="K58" s="17">
+      <c r="L58" s="17">
         <v>-55</v>
       </c>
-      <c r="L58" s="17">
+      <c r="M58" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>0</v>
       </c>
@@ -2979,18 +3156,18 @@
       <c r="C59" s="6">
         <v>4</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
         <v>-41</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>-61</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>-80</v>
       </c>
-      <c r="G59" s="5">
-        <v>-99</v>
-      </c>
       <c r="H59" s="5">
         <v>-99</v>
       </c>
@@ -3000,14 +3177,17 @@
       <c r="J59" s="5">
         <v>-99</v>
       </c>
-      <c r="K59" s="17">
+      <c r="K59" s="5">
         <v>-99</v>
       </c>
       <c r="L59" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>0</v>
       </c>
@@ -3017,15 +3197,15 @@
       <c r="C60" s="6">
         <v>4</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
         <v>-45</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>-66</v>
       </c>
-      <c r="F60" s="5">
-        <v>-99</v>
-      </c>
       <c r="G60" s="5">
         <v>-99</v>
       </c>
@@ -3036,16 +3216,19 @@
         <v>-99</v>
       </c>
       <c r="J60" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K60" s="5">
         <v>-71</v>
       </c>
-      <c r="K60" s="17">
-        <v>-99</v>
-      </c>
       <c r="L60" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>0</v>
       </c>
@@ -3055,15 +3238,15 @@
       <c r="C61" s="6">
         <v>4</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
         <v>-39</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5">
         <v>-61</v>
       </c>
-      <c r="F61" s="5">
-        <v>-99</v>
-      </c>
       <c r="G61" s="5">
         <v>-99</v>
       </c>
@@ -3074,16 +3257,19 @@
         <v>-99</v>
       </c>
       <c r="J61" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K61" s="5">
         <v>-74</v>
       </c>
-      <c r="K61" s="17">
+      <c r="L61" s="17">
         <v>-64</v>
       </c>
-      <c r="L61" s="17">
+      <c r="M61" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>0</v>
       </c>
@@ -3093,35 +3279,38 @@
       <c r="C62" s="6">
         <v>4</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
         <v>-43</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>-58</v>
       </c>
-      <c r="F62" s="5">
+      <c r="G62" s="5">
         <v>-76</v>
       </c>
-      <c r="G62" s="5">
-        <v>-99</v>
-      </c>
       <c r="H62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I62" s="5">
         <v>-68</v>
       </c>
-      <c r="I62" s="5">
-        <v>-99</v>
-      </c>
       <c r="J62" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K62" s="5">
         <v>-74</v>
       </c>
-      <c r="K62" s="17">
-        <v>-99</v>
-      </c>
       <c r="L62" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>0</v>
       </c>
@@ -3131,18 +3320,18 @@
       <c r="C63" s="6">
         <v>4</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
         <v>-37</v>
       </c>
-      <c r="E63" s="5">
-        <v>-99</v>
-      </c>
       <c r="F63" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G63" s="5">
         <v>-74</v>
       </c>
-      <c r="G63" s="5">
-        <v>-99</v>
-      </c>
       <c r="H63" s="5">
         <v>-99</v>
       </c>
@@ -3150,16 +3339,19 @@
         <v>-99</v>
       </c>
       <c r="J63" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K63" s="5">
         <v>-79</v>
       </c>
-      <c r="K63" s="17">
+      <c r="L63" s="17">
         <v>-67</v>
       </c>
-      <c r="L63" s="17">
+      <c r="M63" s="17">
         <v>-65</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>0</v>
       </c>
@@ -3169,35 +3361,38 @@
       <c r="C64" s="6">
         <v>4</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
         <v>-41</v>
       </c>
-      <c r="E64" s="5">
-        <v>-99</v>
-      </c>
       <c r="F64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G64" s="5">
         <v>-76</v>
       </c>
-      <c r="G64" s="5">
-        <v>-99</v>
-      </c>
       <c r="H64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I64" s="5">
         <v>-70</v>
       </c>
-      <c r="I64" s="5">
-        <v>-99</v>
-      </c>
       <c r="J64" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K64" s="5">
         <v>-75</v>
       </c>
-      <c r="K64" s="17">
-        <v>-99</v>
-      </c>
       <c r="L64" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>0</v>
       </c>
@@ -3207,35 +3402,38 @@
       <c r="C65" s="6">
         <v>4</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
         <v>-37</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>-65</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>-80</v>
       </c>
-      <c r="G65" s="5">
-        <v>-99</v>
-      </c>
       <c r="H65" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I65" s="5">
         <v>-76</v>
       </c>
-      <c r="I65" s="5">
+      <c r="J65" s="5">
         <v>-60</v>
       </c>
-      <c r="J65" s="5">
+      <c r="K65" s="5">
         <v>-76</v>
-      </c>
-      <c r="K65" s="17">
-        <v>-60</v>
       </c>
       <c r="L65" s="17">
         <v>-60</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="17">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>0</v>
       </c>
@@ -3245,35 +3443,38 @@
       <c r="C66" s="6">
         <v>4</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
         <v>-42</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5">
         <v>-62</v>
       </c>
-      <c r="F66" s="5">
+      <c r="G66" s="5">
         <v>-70</v>
       </c>
-      <c r="G66" s="5">
-        <v>-99</v>
-      </c>
       <c r="H66" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I66" s="5">
         <v>-69</v>
       </c>
-      <c r="I66" s="5">
-        <v>-99</v>
-      </c>
       <c r="J66" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K66" s="5">
         <v>-77</v>
       </c>
-      <c r="K66" s="17">
-        <v>-99</v>
-      </c>
       <c r="L66" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>0</v>
       </c>
@@ -3283,35 +3484,38 @@
       <c r="C67" s="6">
         <v>4</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
         <v>-45</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <v>-61</v>
       </c>
-      <c r="F67" s="5">
-        <v>-99</v>
-      </c>
       <c r="G67" s="5">
         <v>-99</v>
       </c>
       <c r="H67" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I67" s="5">
         <v>-69</v>
       </c>
-      <c r="I67" s="5">
-        <v>-99</v>
-      </c>
       <c r="J67" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K67" s="5">
         <v>-79</v>
-      </c>
-      <c r="K67" s="17">
-        <v>-55</v>
       </c>
       <c r="L67" s="17">
         <v>-55</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="17">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>0</v>
       </c>
@@ -3321,35 +3525,38 @@
       <c r="C68" s="6">
         <v>4</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
         <v>-47</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>-59</v>
       </c>
-      <c r="F68" s="5">
+      <c r="G68" s="5">
         <v>-74</v>
       </c>
-      <c r="G68" s="5">
-        <v>-99</v>
-      </c>
       <c r="H68" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I68" s="5">
         <v>-71</v>
       </c>
-      <c r="I68" s="5">
+      <c r="J68" s="5">
         <v>-60</v>
       </c>
-      <c r="J68" s="5">
+      <c r="K68" s="5">
         <v>-78</v>
       </c>
-      <c r="K68" s="17">
-        <v>-99</v>
-      </c>
       <c r="L68" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>0</v>
       </c>
@@ -3359,35 +3566,38 @@
       <c r="C69" s="6">
         <v>4</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
         <v>-42</v>
       </c>
-      <c r="E69" s="5">
-        <v>-99</v>
-      </c>
       <c r="F69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G69" s="5">
         <v>-77</v>
       </c>
-      <c r="G69" s="5">
-        <v>-99</v>
-      </c>
       <c r="H69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I69" s="5">
         <v>-64</v>
       </c>
-      <c r="I69" s="5">
-        <v>-99</v>
-      </c>
       <c r="J69" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K69" s="5">
         <v>-82</v>
       </c>
-      <c r="K69" s="17">
-        <v>-99</v>
-      </c>
       <c r="L69" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>0</v>
       </c>
@@ -3397,12 +3607,12 @@
       <c r="C70" s="6">
         <v>4</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
         <v>-39</v>
       </c>
-      <c r="E70" s="5">
-        <v>-99</v>
-      </c>
       <c r="F70" s="5">
         <v>-99</v>
       </c>
@@ -3410,22 +3620,25 @@
         <v>-99</v>
       </c>
       <c r="H70" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I70" s="5">
         <v>-67</v>
       </c>
-      <c r="I70" s="5">
-        <v>-99</v>
-      </c>
       <c r="J70" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K70" s="5">
         <v>-75</v>
       </c>
-      <c r="K70" s="17">
-        <v>-99</v>
-      </c>
       <c r="L70" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>0</v>
       </c>
@@ -3435,12 +3648,12 @@
       <c r="C71" s="6">
         <v>4</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
         <v>-47</v>
       </c>
-      <c r="E71" s="5">
-        <v>-99</v>
-      </c>
       <c r="F71" s="5">
         <v>-99</v>
       </c>
@@ -3448,22 +3661,25 @@
         <v>-99</v>
       </c>
       <c r="H71" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I71" s="5">
         <v>-65</v>
       </c>
-      <c r="I71" s="5">
-        <v>-99</v>
-      </c>
       <c r="J71" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K71" s="5">
         <v>-75</v>
       </c>
-      <c r="K71" s="17">
+      <c r="L71" s="17">
         <v>-64</v>
       </c>
-      <c r="L71" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>0</v>
       </c>
@@ -3473,35 +3689,38 @@
       <c r="C72" s="6">
         <v>4</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
         <v>-48</v>
       </c>
-      <c r="E72" s="5">
-        <v>-99</v>
-      </c>
       <c r="F72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G72" s="5">
         <v>-71</v>
       </c>
-      <c r="G72" s="5">
-        <v>-99</v>
-      </c>
       <c r="H72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I72" s="5">
         <v>-76</v>
       </c>
-      <c r="I72" s="5">
-        <v>-99</v>
-      </c>
       <c r="J72" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K72" s="5">
         <v>-73</v>
       </c>
-      <c r="K72" s="17">
+      <c r="L72" s="17">
         <v>-56</v>
       </c>
-      <c r="L72" s="17">
+      <c r="M72" s="17">
         <v>-54</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>0</v>
       </c>
@@ -3511,35 +3730,38 @@
       <c r="C73" s="6">
         <v>4</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
         <v>-47</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5">
         <v>-73</v>
       </c>
-      <c r="F73" s="5">
+      <c r="G73" s="5">
         <v>-71</v>
       </c>
-      <c r="G73" s="5">
-        <v>-99</v>
-      </c>
       <c r="H73" s="5">
         <v>-99</v>
       </c>
       <c r="I73" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J73" s="5">
         <v>-56</v>
       </c>
-      <c r="J73" s="5">
+      <c r="K73" s="5">
         <v>-74</v>
       </c>
-      <c r="K73" s="17">
+      <c r="L73" s="17">
         <v>-57</v>
       </c>
-      <c r="L73" s="17">
+      <c r="M73" s="17">
         <v>-54</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>0</v>
       </c>
@@ -3549,35 +3771,38 @@
       <c r="C74" s="6">
         <v>4</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
         <v>-49</v>
       </c>
-      <c r="E74" s="5">
-        <v>-99</v>
-      </c>
       <c r="F74" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G74" s="5">
         <v>-73</v>
       </c>
-      <c r="G74" s="5">
-        <v>-99</v>
-      </c>
       <c r="H74" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I74" s="5">
         <v>-72</v>
       </c>
-      <c r="I74" s="5">
+      <c r="J74" s="5">
         <v>-50</v>
       </c>
-      <c r="J74" s="5">
+      <c r="K74" s="5">
         <v>-76</v>
       </c>
-      <c r="K74" s="17">
-        <v>-99</v>
-      </c>
       <c r="L74" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M74" s="17">
         <v>-51</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>0</v>
       </c>
@@ -3587,35 +3812,38 @@
       <c r="C75" s="6">
         <v>4</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
         <v>-50</v>
       </c>
-      <c r="E75" s="5">
-        <v>-99</v>
-      </c>
       <c r="F75" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G75" s="5">
         <v>-76</v>
       </c>
-      <c r="G75" s="5">
-        <v>-99</v>
-      </c>
       <c r="H75" s="5">
         <v>-99</v>
       </c>
       <c r="I75" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J75" s="5">
         <v>-54</v>
       </c>
-      <c r="J75" s="5">
+      <c r="K75" s="5">
         <v>-70</v>
       </c>
-      <c r="K75" s="17">
-        <v>-99</v>
-      </c>
       <c r="L75" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>0</v>
       </c>
@@ -3625,35 +3853,38 @@
       <c r="C76" s="6">
         <v>4</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
         <v>-50</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5">
         <v>-67</v>
       </c>
-      <c r="F76" s="5">
+      <c r="G76" s="5">
         <v>-74</v>
       </c>
-      <c r="G76" s="5">
-        <v>-99</v>
-      </c>
       <c r="H76" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I76" s="5">
         <v>-70</v>
       </c>
-      <c r="I76" s="5">
-        <v>-99</v>
-      </c>
       <c r="J76" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K76" s="5">
         <v>-72</v>
       </c>
-      <c r="K76" s="17">
+      <c r="L76" s="17">
         <v>-57</v>
       </c>
-      <c r="L76" s="17">
+      <c r="M76" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>0</v>
       </c>
@@ -3663,35 +3894,38 @@
       <c r="C77" s="6">
         <v>4</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
         <v>-50</v>
       </c>
-      <c r="E77" s="5">
-        <v>-99</v>
-      </c>
       <c r="F77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G77" s="5">
         <v>-73</v>
       </c>
-      <c r="G77" s="5">
-        <v>-99</v>
-      </c>
       <c r="H77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I77" s="5">
         <v>-72</v>
       </c>
-      <c r="I77" s="5">
-        <v>-99</v>
-      </c>
       <c r="J77" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K77" s="5">
         <v>-68</v>
       </c>
-      <c r="K77" s="17">
+      <c r="L77" s="17">
         <v>-65</v>
       </c>
-      <c r="L77" s="17">
+      <c r="M77" s="17">
         <v>-57</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>0</v>
       </c>
@@ -3701,18 +3935,18 @@
       <c r="C78" s="6">
         <v>4</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
         <v>-53</v>
       </c>
-      <c r="E78" s="5">
-        <v>-99</v>
-      </c>
       <c r="F78" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G78" s="5">
         <v>-71</v>
       </c>
-      <c r="G78" s="5">
-        <v>-99</v>
-      </c>
       <c r="H78" s="5">
         <v>-99</v>
       </c>
@@ -3720,16 +3954,19 @@
         <v>-99</v>
       </c>
       <c r="J78" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K78" s="5">
         <v>-70</v>
       </c>
-      <c r="K78" s="17">
+      <c r="L78" s="17">
         <v>-57</v>
       </c>
-      <c r="L78" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M78" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>0</v>
       </c>
@@ -3739,18 +3976,18 @@
       <c r="C79" s="6">
         <v>4</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
         <v>-48</v>
       </c>
-      <c r="E79" s="5">
-        <v>-99</v>
-      </c>
       <c r="F79" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G79" s="5">
         <v>-75</v>
       </c>
-      <c r="G79" s="5">
-        <v>-99</v>
-      </c>
       <c r="H79" s="5">
         <v>-99</v>
       </c>
@@ -3758,16 +3995,19 @@
         <v>-99</v>
       </c>
       <c r="J79" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K79" s="5">
         <v>-70</v>
       </c>
-      <c r="K79" s="17">
-        <v>-99</v>
-      </c>
       <c r="L79" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M79" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>0</v>
       </c>
@@ -3777,12 +4017,12 @@
       <c r="C80" s="6">
         <v>4</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
         <v>-46</v>
       </c>
-      <c r="E80" s="5">
-        <v>-99</v>
-      </c>
       <c r="F80" s="5">
         <v>-99</v>
       </c>
@@ -3790,22 +4030,25 @@
         <v>-99</v>
       </c>
       <c r="H80" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I80" s="5">
         <v>-72</v>
       </c>
-      <c r="I80" s="5">
+      <c r="J80" s="5">
         <v>-56</v>
       </c>
-      <c r="J80" s="5">
+      <c r="K80" s="5">
         <v>-74</v>
       </c>
-      <c r="K80" s="17">
+      <c r="L80" s="17">
         <v>-55</v>
       </c>
-      <c r="L80" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>0</v>
       </c>
@@ -3815,35 +4058,38 @@
       <c r="C81" s="6">
         <v>4</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
         <v>-45</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5">
         <v>-69</v>
       </c>
-      <c r="F81" s="5">
+      <c r="G81" s="5">
         <v>-79</v>
       </c>
-      <c r="G81" s="5">
-        <v>-99</v>
-      </c>
       <c r="H81" s="5">
         <v>-99</v>
       </c>
       <c r="I81" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J81" s="5">
         <v>-58</v>
       </c>
-      <c r="J81" s="5">
+      <c r="K81" s="5">
         <v>-71</v>
       </c>
-      <c r="K81" s="17">
-        <v>-99</v>
-      </c>
       <c r="L81" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>0</v>
       </c>
@@ -3853,18 +4099,18 @@
       <c r="C82" s="6">
         <v>4</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
         <v>-47</v>
       </c>
-      <c r="E82" s="5">
-        <v>-99</v>
-      </c>
       <c r="F82" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G82" s="5">
         <v>-72</v>
       </c>
-      <c r="G82" s="5">
-        <v>-99</v>
-      </c>
       <c r="H82" s="5">
         <v>-99</v>
       </c>
@@ -3872,16 +4118,19 @@
         <v>-99</v>
       </c>
       <c r="J82" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K82" s="5">
         <v>-70</v>
       </c>
-      <c r="K82" s="17">
+      <c r="L82" s="17">
         <v>-55</v>
       </c>
-      <c r="L82" s="17">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>0</v>
       </c>
@@ -3891,12 +4140,12 @@
       <c r="C83" s="6">
         <v>4</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
         <v>-46</v>
       </c>
-      <c r="E83" s="5">
-        <v>-99</v>
-      </c>
       <c r="F83" s="5">
         <v>-99</v>
       </c>
@@ -3907,19 +4156,22 @@
         <v>-99</v>
       </c>
       <c r="I83" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J83" s="5">
         <v>-58</v>
       </c>
-      <c r="J83" s="5">
+      <c r="K83" s="5">
         <v>-69</v>
       </c>
-      <c r="K83" s="17">
-        <v>-99</v>
-      </c>
       <c r="L83" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M83" s="17">
         <v>-59</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>0</v>
       </c>
@@ -3929,35 +4181,38 @@
       <c r="C84" s="6">
         <v>4</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
         <v>-48</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5">
         <v>-63</v>
       </c>
-      <c r="F84" s="5">
+      <c r="G84" s="5">
         <v>-73</v>
       </c>
-      <c r="G84" s="5">
-        <v>-99</v>
-      </c>
       <c r="H84" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I84" s="5">
         <v>-71</v>
       </c>
-      <c r="I84" s="5">
+      <c r="J84" s="5">
         <v>-58</v>
       </c>
-      <c r="J84" s="5">
+      <c r="K84" s="5">
         <v>-71</v>
       </c>
-      <c r="K84" s="17">
-        <v>-99</v>
-      </c>
       <c r="L84" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>0</v>
       </c>
@@ -3967,35 +4222,38 @@
       <c r="C85" s="6">
         <v>4</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
         <v>-47</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <v>-63</v>
       </c>
-      <c r="F85" s="5">
-        <v>-99</v>
-      </c>
       <c r="G85" s="5">
         <v>-99</v>
       </c>
       <c r="H85" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I85" s="5">
         <v>-71</v>
       </c>
-      <c r="I85" s="5">
-        <v>-99</v>
-      </c>
       <c r="J85" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K85" s="5">
         <v>-69</v>
       </c>
-      <c r="K85" s="17">
+      <c r="L85" s="17">
         <v>-55</v>
       </c>
-      <c r="L85" s="17">
+      <c r="M85" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>0</v>
       </c>
@@ -4005,35 +4263,38 @@
       <c r="C86" s="6">
         <v>4</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="6">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
         <v>-45</v>
       </c>
-      <c r="E86" s="5">
-        <v>-99</v>
-      </c>
       <c r="F86" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G86" s="5">
         <v>-82</v>
       </c>
-      <c r="G86" s="5">
-        <v>-99</v>
-      </c>
       <c r="H86" s="5">
         <v>-99</v>
       </c>
       <c r="I86" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J86" s="5">
         <v>-56</v>
       </c>
-      <c r="J86" s="5">
+      <c r="K86" s="5">
         <v>-74</v>
       </c>
-      <c r="K86" s="17">
-        <v>-99</v>
-      </c>
       <c r="L86" s="17">
+        <v>-99</v>
+      </c>
+      <c r="M86" s="17">
         <v>-56</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>0</v>
       </c>
@@ -4043,35 +4304,38 @@
       <c r="C87" s="6">
         <v>4</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
         <v>-49</v>
       </c>
-      <c r="E87" s="5">
-        <v>-99</v>
-      </c>
       <c r="F87" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G87" s="5">
         <v>-77</v>
       </c>
-      <c r="G87" s="5">
-        <v>-99</v>
-      </c>
       <c r="H87" s="5">
         <v>-99</v>
       </c>
       <c r="I87" s="5">
+        <v>-99</v>
+      </c>
+      <c r="J87" s="5">
         <v>-57</v>
       </c>
-      <c r="J87" s="5">
+      <c r="K87" s="5">
         <v>-74</v>
       </c>
-      <c r="K87" s="17">
-        <v>-99</v>
-      </c>
       <c r="L87" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>0</v>
       </c>
@@ -4081,35 +4345,38 @@
       <c r="C88" s="6">
         <v>4</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
         <v>-50</v>
       </c>
-      <c r="E88" s="5">
-        <v>-99</v>
-      </c>
       <c r="F88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G88" s="5">
         <v>-75</v>
       </c>
-      <c r="G88" s="5">
-        <v>-99</v>
-      </c>
       <c r="H88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I88" s="5">
         <v>-67</v>
       </c>
-      <c r="I88" s="5">
-        <v>-99</v>
-      </c>
       <c r="J88" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K88" s="5">
         <v>-69</v>
       </c>
-      <c r="K88" s="17">
-        <v>-99</v>
-      </c>
       <c r="L88" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>0</v>
       </c>
@@ -4119,35 +4386,38 @@
       <c r="C89" s="6">
         <v>4</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
         <v>-45</v>
       </c>
-      <c r="E89" s="5">
+      <c r="F89" s="5">
         <v>-61</v>
       </c>
-      <c r="F89" s="5">
+      <c r="G89" s="5">
         <v>-75</v>
       </c>
-      <c r="G89" s="5">
-        <v>-99</v>
-      </c>
       <c r="H89" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I89" s="5">
         <v>-72</v>
       </c>
-      <c r="I89" s="5">
-        <v>-99</v>
-      </c>
       <c r="J89" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K89" s="5">
         <v>-72</v>
       </c>
-      <c r="K89" s="17">
-        <v>-99</v>
-      </c>
       <c r="L89" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>0</v>
       </c>
@@ -4157,18 +4427,18 @@
       <c r="C90" s="6">
         <v>4</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
         <v>-47</v>
       </c>
-      <c r="E90" s="5">
-        <v>-99</v>
-      </c>
       <c r="F90" s="5">
+        <v>-99</v>
+      </c>
+      <c r="G90" s="5">
         <v>-75</v>
       </c>
-      <c r="G90" s="5">
-        <v>-99</v>
-      </c>
       <c r="H90" s="5">
         <v>-99</v>
       </c>
@@ -4176,16 +4446,19 @@
         <v>-99</v>
       </c>
       <c r="J90" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K90" s="5">
         <v>-72</v>
       </c>
-      <c r="K90" s="17">
-        <v>-99</v>
-      </c>
       <c r="L90" s="17">
         <v>-99</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="17">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>0</v>
       </c>
@@ -4195,35 +4468,38 @@
       <c r="C91" s="6">
         <v>4</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
         <v>-48</v>
       </c>
-      <c r="E91" s="5">
+      <c r="F91" s="5">
         <v>-70</v>
       </c>
-      <c r="F91" s="5">
+      <c r="G91" s="5">
         <v>-72</v>
       </c>
-      <c r="G91" s="5">
-        <v>-99</v>
-      </c>
       <c r="H91" s="5">
+        <v>-99</v>
+      </c>
+      <c r="I91" s="5">
         <v>-66</v>
       </c>
-      <c r="I91" s="5">
-        <v>-99</v>
-      </c>
       <c r="J91" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K91" s="5">
         <v>-68</v>
-      </c>
-      <c r="K91" s="17">
-        <v>-55</v>
       </c>
       <c r="L91" s="17">
         <v>-55</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="17">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>0</v>
       </c>
@@ -4233,18 +4509,18 @@
       <c r="C92" s="6">
         <v>4</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
         <v>-46</v>
       </c>
-      <c r="E92" s="5">
+      <c r="F92" s="5">
         <v>-67</v>
       </c>
-      <c r="F92" s="5">
+      <c r="G92" s="5">
         <v>-77</v>
       </c>
-      <c r="G92" s="5">
-        <v>-99</v>
-      </c>
       <c r="H92" s="5">
         <v>-99</v>
       </c>
@@ -4252,16 +4528,19 @@
         <v>-99</v>
       </c>
       <c r="J92" s="5">
+        <v>-99</v>
+      </c>
+      <c r="K92" s="5">
         <v>-73</v>
       </c>
-      <c r="K92" s="17">
+      <c r="L92" s="17">
         <v>-59</v>
       </c>
-      <c r="L92" s="17">
+      <c r="M92" s="17">
         <v>-58</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -4272,10 +4551,11 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="17"/>
+      <c r="K93" s="5"/>
       <c r="L93" s="17"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="17"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -4286,10 +4566,11 @@
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="17"/>
+      <c r="K94" s="5"/>
       <c r="L94" s="17"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="17"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -4300,10 +4581,11 @@
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="17"/>
+      <c r="K95" s="5"/>
       <c r="L95" s="17"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="17"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4314,10 +4596,11 @@
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="17"/>
+      <c r="K96" s="5"/>
       <c r="L96" s="17"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="17"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -4328,10 +4611,11 @@
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="17"/>
+      <c r="K97" s="5"/>
       <c r="L97" s="17"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="17"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -4342,10 +4626,11 @@
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="17"/>
+      <c r="K98" s="5"/>
       <c r="L98" s="17"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="17"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -4356,10 +4641,11 @@
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="17"/>
+      <c r="K99" s="5"/>
       <c r="L99" s="17"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="17"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -4370,10 +4656,11 @@
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="17"/>
+      <c r="K100" s="5"/>
       <c r="L100" s="17"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="17"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -4384,10 +4671,11 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="17"/>
+      <c r="K101" s="5"/>
       <c r="L101" s="17"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="17"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -4398,10 +4686,11 @@
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="17"/>
+      <c r="K102" s="5"/>
       <c r="L102" s="17"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M102" s="17"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -4412,10 +4701,11 @@
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="17"/>
+      <c r="K103" s="5"/>
       <c r="L103" s="17"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M103" s="17"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -4426,10 +4716,11 @@
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="17"/>
+      <c r="K104" s="5"/>
       <c r="L104" s="17"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M104" s="17"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -4440,10 +4731,11 @@
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="17"/>
+      <c r="K105" s="5"/>
       <c r="L105" s="17"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M105" s="17"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -4454,10 +4746,11 @@
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="17"/>
+      <c r="K106" s="5"/>
       <c r="L106" s="17"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M106" s="17"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -4468,10 +4761,11 @@
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="17"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="17"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M107" s="17"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -4482,10 +4776,11 @@
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="17"/>
+      <c r="K108" s="5"/>
       <c r="L108" s="17"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -4496,10 +4791,11 @@
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="17"/>
+      <c r="K109" s="5"/>
       <c r="L109" s="17"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -4510,10 +4806,11 @@
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="17"/>
+      <c r="K110" s="5"/>
       <c r="L110" s="17"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -4524,10 +4821,11 @@
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="17"/>
+      <c r="K111" s="5"/>
       <c r="L111" s="17"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -4538,10 +4836,11 @@
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="17"/>
+      <c r="K112" s="5"/>
       <c r="L112" s="17"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4552,10 +4851,11 @@
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="17"/>
+      <c r="K113" s="5"/>
       <c r="L113" s="17"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4566,10 +4866,11 @@
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="17"/>
+      <c r="K114" s="5"/>
       <c r="L114" s="17"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -4580,10 +4881,11 @@
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="17"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="17"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -4594,10 +4896,11 @@
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="17"/>
+      <c r="K116" s="5"/>
       <c r="L116" s="17"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -4608,10 +4911,11 @@
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="17"/>
+      <c r="K117" s="5"/>
       <c r="L117" s="17"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4622,10 +4926,11 @@
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="17"/>
+      <c r="K118" s="5"/>
       <c r="L118" s="17"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4636,10 +4941,11 @@
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="17"/>
+      <c r="K119" s="5"/>
       <c r="L119" s="17"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4650,10 +4956,11 @@
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="17"/>
+      <c r="K120" s="5"/>
       <c r="L120" s="17"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4664,10 +4971,11 @@
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="17"/>
+      <c r="K121" s="5"/>
       <c r="L121" s="17"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4678,10 +4986,11 @@
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="17"/>
+      <c r="K122" s="5"/>
       <c r="L122" s="17"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4692,10 +5001,11 @@
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="17"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="17"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M123" s="17"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4706,10 +5016,11 @@
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="17"/>
+      <c r="K124" s="5"/>
       <c r="L124" s="17"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M124" s="17"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4720,10 +5031,11 @@
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="17"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="17"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M125" s="17"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4734,10 +5046,11 @@
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="17"/>
+      <c r="K126" s="5"/>
       <c r="L126" s="17"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M126" s="17"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4748,10 +5061,11 @@
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="17"/>
+      <c r="K127" s="5"/>
       <c r="L127" s="17"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4762,10 +5076,11 @@
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="17"/>
+      <c r="K128" s="5"/>
       <c r="L128" s="17"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M128" s="17"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4776,10 +5091,11 @@
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="17"/>
+      <c r="K129" s="5"/>
       <c r="L129" s="17"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M129" s="17"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4790,10 +5106,11 @@
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="17"/>
+      <c r="K130" s="5"/>
       <c r="L130" s="17"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M130" s="17"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4804,10 +5121,11 @@
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="17"/>
+      <c r="K131" s="5"/>
       <c r="L131" s="17"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M131" s="17"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4818,10 +5136,11 @@
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="17"/>
+      <c r="K132" s="5"/>
       <c r="L132" s="17"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M132" s="17"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4832,10 +5151,11 @@
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="17"/>
+      <c r="K133" s="5"/>
       <c r="L133" s="17"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M133" s="17"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4846,10 +5166,11 @@
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="17"/>
+      <c r="K134" s="5"/>
       <c r="L134" s="17"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M134" s="17"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4860,10 +5181,11 @@
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="17"/>
+      <c r="K135" s="5"/>
       <c r="L135" s="17"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M135" s="17"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4874,10 +5196,11 @@
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="17"/>
+      <c r="K136" s="5"/>
       <c r="L136" s="17"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M136" s="17"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4888,10 +5211,11 @@
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="17"/>
+      <c r="K137" s="5"/>
       <c r="L137" s="17"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M137" s="17"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4902,10 +5226,11 @@
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="17"/>
+      <c r="K138" s="5"/>
       <c r="L138" s="17"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M138" s="17"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4916,10 +5241,11 @@
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="17"/>
+      <c r="K139" s="5"/>
       <c r="L139" s="17"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M139" s="17"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4930,10 +5256,11 @@
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="17"/>
+      <c r="K140" s="5"/>
       <c r="L140" s="17"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M140" s="17"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4944,10 +5271,11 @@
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="17"/>
+      <c r="K141" s="5"/>
       <c r="L141" s="17"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M141" s="17"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4958,10 +5286,11 @@
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="17"/>
+      <c r="K142" s="5"/>
       <c r="L142" s="17"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M142" s="17"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4972,10 +5301,11 @@
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="17"/>
+      <c r="K143" s="5"/>
       <c r="L143" s="17"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M143" s="17"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4986,10 +5316,11 @@
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="17"/>
+      <c r="K144" s="5"/>
       <c r="L144" s="17"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M144" s="17"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -5000,10 +5331,11 @@
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="17"/>
+      <c r="K145" s="5"/>
       <c r="L145" s="17"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M145" s="17"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -5014,10 +5346,11 @@
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="17"/>
+      <c r="K146" s="5"/>
       <c r="L146" s="17"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M146" s="17"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -5028,10 +5361,11 @@
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="17"/>
+      <c r="K147" s="5"/>
       <c r="L147" s="17"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M147" s="17"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -5042,10 +5376,11 @@
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="5"/>
       <c r="L148" s="17"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M148" s="17"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -5056,10 +5391,11 @@
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="17"/>
+      <c r="K149" s="5"/>
       <c r="L149" s="17"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -5070,10 +5406,11 @@
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="17"/>
+      <c r="K150" s="5"/>
       <c r="L150" s="17"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M150" s="17"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -5084,10 +5421,11 @@
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="17"/>
+      <c r="K151" s="5"/>
       <c r="L151" s="17"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M151" s="17"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -5098,10 +5436,11 @@
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="17"/>
+      <c r="K152" s="5"/>
       <c r="L152" s="17"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M152" s="17"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -5112,10 +5451,11 @@
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="17"/>
+      <c r="K153" s="5"/>
       <c r="L153" s="17"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M153" s="17"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -5126,10 +5466,11 @@
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="5"/>
       <c r="L154" s="17"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M154" s="17"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -5140,10 +5481,11 @@
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="5"/>
       <c r="L155" s="17"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M155" s="17"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -5154,10 +5496,11 @@
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="17"/>
+      <c r="K156" s="5"/>
       <c r="L156" s="17"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M156" s="17"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -5168,10 +5511,11 @@
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="17"/>
+      <c r="K157" s="5"/>
       <c r="L157" s="17"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M157" s="17"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -5182,10 +5526,11 @@
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="17"/>
+      <c r="K158" s="5"/>
       <c r="L158" s="17"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M158" s="17"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -5196,10 +5541,11 @@
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="17"/>
+      <c r="K159" s="5"/>
       <c r="L159" s="17"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M159" s="17"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -5210,10 +5556,11 @@
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="17"/>
+      <c r="K160" s="5"/>
       <c r="L160" s="17"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M160" s="17"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5224,10 +5571,11 @@
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="17"/>
+      <c r="K161" s="5"/>
       <c r="L161" s="17"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M161" s="17"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5238,10 +5586,11 @@
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="17"/>
+      <c r="K162" s="5"/>
       <c r="L162" s="17"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M162" s="17"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5252,10 +5601,11 @@
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="17"/>
+      <c r="K163" s="5"/>
       <c r="L163" s="17"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M163" s="17"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5266,10 +5616,11 @@
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="17"/>
+      <c r="K164" s="5"/>
       <c r="L164" s="17"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M164" s="17"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5280,10 +5631,11 @@
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="17"/>
+      <c r="K165" s="5"/>
       <c r="L165" s="17"/>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5294,10 +5646,11 @@
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="17"/>
+      <c r="K166" s="5"/>
       <c r="L166" s="17"/>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M166" s="17"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5308,10 +5661,11 @@
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
-      <c r="K167" s="17"/>
+      <c r="K167" s="5"/>
       <c r="L167" s="17"/>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M167" s="17"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5322,10 +5676,11 @@
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
-      <c r="K168" s="17"/>
+      <c r="K168" s="5"/>
       <c r="L168" s="17"/>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M168" s="17"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5336,10 +5691,11 @@
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
       <c r="J169" s="5"/>
-      <c r="K169" s="17"/>
+      <c r="K169" s="5"/>
       <c r="L169" s="17"/>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M169" s="17"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5350,10 +5706,11 @@
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
       <c r="J170" s="5"/>
-      <c r="K170" s="17"/>
+      <c r="K170" s="5"/>
       <c r="L170" s="17"/>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M170" s="17"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5364,10 +5721,11 @@
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
       <c r="J171" s="5"/>
-      <c r="K171" s="17"/>
+      <c r="K171" s="5"/>
       <c r="L171" s="17"/>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M171" s="17"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5378,10 +5736,11 @@
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
       <c r="J172" s="5"/>
-      <c r="K172" s="17"/>
+      <c r="K172" s="5"/>
       <c r="L172" s="17"/>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M172" s="17"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5392,10 +5751,11 @@
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
-      <c r="K173" s="17"/>
+      <c r="K173" s="5"/>
       <c r="L173" s="17"/>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M173" s="17"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5406,10 +5766,11 @@
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
       <c r="J174" s="5"/>
-      <c r="K174" s="17"/>
+      <c r="K174" s="5"/>
       <c r="L174" s="17"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M174" s="17"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5420,10 +5781,11 @@
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
-      <c r="K175" s="17"/>
+      <c r="K175" s="5"/>
       <c r="L175" s="17"/>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M175" s="17"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5434,10 +5796,11 @@
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
       <c r="J176" s="5"/>
-      <c r="K176" s="17"/>
+      <c r="K176" s="5"/>
       <c r="L176" s="17"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M176" s="17"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5448,10 +5811,11 @@
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
       <c r="J177" s="5"/>
-      <c r="K177" s="17"/>
+      <c r="K177" s="5"/>
       <c r="L177" s="17"/>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M177" s="17"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5462,10 +5826,11 @@
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
       <c r="J178" s="5"/>
-      <c r="K178" s="17"/>
+      <c r="K178" s="5"/>
       <c r="L178" s="17"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M178" s="17"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5476,10 +5841,11 @@
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
       <c r="J179" s="5"/>
-      <c r="K179" s="17"/>
+      <c r="K179" s="5"/>
       <c r="L179" s="17"/>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M179" s="17"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5490,10 +5856,11 @@
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
       <c r="J180" s="5"/>
-      <c r="K180" s="17"/>
+      <c r="K180" s="5"/>
       <c r="L180" s="17"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M180" s="17"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5504,10 +5871,11 @@
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
       <c r="J181" s="5"/>
-      <c r="K181" s="17"/>
+      <c r="K181" s="5"/>
       <c r="L181" s="17"/>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M181" s="17"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5518,10 +5886,11 @@
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
-      <c r="K182" s="17"/>
+      <c r="K182" s="5"/>
       <c r="L182" s="17"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M182" s="17"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5532,10 +5901,11 @@
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
-      <c r="K183" s="17"/>
+      <c r="K183" s="5"/>
       <c r="L183" s="17"/>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M183" s="17"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5546,10 +5916,11 @@
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
-      <c r="K184" s="17"/>
+      <c r="K184" s="5"/>
       <c r="L184" s="17"/>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M184" s="17"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5560,10 +5931,11 @@
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="5"/>
-      <c r="K185" s="17"/>
+      <c r="K185" s="5"/>
       <c r="L185" s="17"/>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M185" s="17"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5574,10 +5946,11 @@
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
       <c r="J186" s="5"/>
-      <c r="K186" s="17"/>
+      <c r="K186" s="5"/>
       <c r="L186" s="17"/>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M186" s="17"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5588,10 +5961,11 @@
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
       <c r="J187" s="5"/>
-      <c r="K187" s="17"/>
+      <c r="K187" s="5"/>
       <c r="L187" s="17"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M187" s="17"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5602,10 +5976,11 @@
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
       <c r="J188" s="5"/>
-      <c r="K188" s="17"/>
+      <c r="K188" s="5"/>
       <c r="L188" s="17"/>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M188" s="17"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5616,10 +5991,11 @@
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
       <c r="J189" s="5"/>
-      <c r="K189" s="17"/>
+      <c r="K189" s="5"/>
       <c r="L189" s="17"/>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M189" s="17"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5630,10 +6006,11 @@
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
-      <c r="K190" s="17"/>
+      <c r="K190" s="5"/>
       <c r="L190" s="17"/>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M190" s="17"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5644,10 +6021,11 @@
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
-      <c r="K191" s="17"/>
+      <c r="K191" s="5"/>
       <c r="L191" s="17"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M191" s="17"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5658,10 +6036,11 @@
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
-      <c r="K192" s="17"/>
+      <c r="K192" s="5"/>
       <c r="L192" s="17"/>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M192" s="17"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5672,10 +6051,11 @@
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
-      <c r="K193" s="17"/>
+      <c r="K193" s="5"/>
       <c r="L193" s="17"/>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M193" s="17"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5686,10 +6066,11 @@
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
-      <c r="K194" s="17"/>
+      <c r="K194" s="5"/>
       <c r="L194" s="17"/>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M194" s="17"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5700,10 +6081,11 @@
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
-      <c r="K195" s="17"/>
+      <c r="K195" s="5"/>
       <c r="L195" s="17"/>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M195" s="17"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5714,10 +6096,11 @@
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
-      <c r="K196" s="17"/>
+      <c r="K196" s="5"/>
       <c r="L196" s="17"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M196" s="17"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5728,10 +6111,11 @@
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
-      <c r="K197" s="17"/>
+      <c r="K197" s="5"/>
       <c r="L197" s="17"/>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M197" s="17"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5742,10 +6126,11 @@
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
-      <c r="K198" s="17"/>
+      <c r="K198" s="5"/>
       <c r="L198" s="17"/>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M198" s="17"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5756,10 +6141,11 @@
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
       <c r="J199" s="5"/>
-      <c r="K199" s="17"/>
+      <c r="K199" s="5"/>
       <c r="L199" s="17"/>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M199" s="17"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5770,10 +6156,11 @@
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
       <c r="J200" s="5"/>
-      <c r="K200" s="17"/>
+      <c r="K200" s="5"/>
       <c r="L200" s="17"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M200" s="17"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5784,10 +6171,11 @@
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
       <c r="J201" s="5"/>
-      <c r="K201" s="17"/>
+      <c r="K201" s="5"/>
       <c r="L201" s="17"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M201" s="17"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5798,10 +6186,11 @@
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
       <c r="J202" s="5"/>
-      <c r="K202" s="17"/>
+      <c r="K202" s="5"/>
       <c r="L202" s="17"/>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M202" s="17"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5812,10 +6201,11 @@
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
       <c r="J203" s="5"/>
-      <c r="K203" s="17"/>
+      <c r="K203" s="5"/>
       <c r="L203" s="17"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M203" s="17"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5826,10 +6216,11 @@
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
       <c r="J204" s="5"/>
-      <c r="K204" s="17"/>
+      <c r="K204" s="5"/>
       <c r="L204" s="17"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M204" s="17"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -5840,10 +6231,11 @@
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
       <c r="J205" s="5"/>
-      <c r="K205" s="17"/>
+      <c r="K205" s="5"/>
       <c r="L205" s="17"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M205" s="17"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -5854,10 +6246,11 @@
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
       <c r="J206" s="5"/>
-      <c r="K206" s="17"/>
+      <c r="K206" s="5"/>
       <c r="L206" s="17"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M206" s="17"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -5868,10 +6261,11 @@
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
       <c r="J207" s="5"/>
-      <c r="K207" s="17"/>
+      <c r="K207" s="5"/>
       <c r="L207" s="17"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M207" s="17"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -5882,10 +6276,11 @@
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
       <c r="J208" s="5"/>
-      <c r="K208" s="17"/>
+      <c r="K208" s="5"/>
       <c r="L208" s="17"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M208" s="17"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -5896,10 +6291,11 @@
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
       <c r="J209" s="5"/>
-      <c r="K209" s="17"/>
+      <c r="K209" s="5"/>
       <c r="L209" s="17"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M209" s="17"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -5910,10 +6306,11 @@
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
       <c r="J210" s="5"/>
-      <c r="K210" s="17"/>
+      <c r="K210" s="5"/>
       <c r="L210" s="17"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M210" s="17"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -5924,10 +6321,11 @@
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
       <c r="J211" s="5"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="5"/>
       <c r="L211" s="17"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M211" s="17"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -5938,10 +6336,11 @@
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
       <c r="J212" s="5"/>
-      <c r="K212" s="17"/>
+      <c r="K212" s="5"/>
       <c r="L212" s="17"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M212" s="17"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -5952,10 +6351,11 @@
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
       <c r="J213" s="5"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="5"/>
       <c r="L213" s="17"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M213" s="17"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -5966,10 +6366,11 @@
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
       <c r="J214" s="5"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="5"/>
       <c r="L214" s="17"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M214" s="17"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -5980,10 +6381,11 @@
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
       <c r="J215" s="5"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="5"/>
       <c r="L215" s="17"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M215" s="17"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -5994,10 +6396,11 @@
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
       <c r="J216" s="5"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="5"/>
       <c r="L216" s="17"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M216" s="17"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6008,10 +6411,11 @@
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
       <c r="J217" s="5"/>
-      <c r="K217" s="17"/>
+      <c r="K217" s="5"/>
       <c r="L217" s="17"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M217" s="17"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6022,10 +6426,11 @@
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
       <c r="J218" s="5"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="5"/>
       <c r="L218" s="17"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M218" s="17"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6036,10 +6441,11 @@
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
       <c r="J219" s="5"/>
-      <c r="K219" s="17"/>
+      <c r="K219" s="5"/>
       <c r="L219" s="17"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M219" s="17"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6050,10 +6456,11 @@
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
       <c r="J220" s="5"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="5"/>
       <c r="L220" s="17"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M220" s="17"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6064,10 +6471,11 @@
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
       <c r="J221" s="5"/>
-      <c r="K221" s="17"/>
+      <c r="K221" s="5"/>
       <c r="L221" s="17"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M221" s="17"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6078,10 +6486,11 @@
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
       <c r="J222" s="5"/>
-      <c r="K222" s="17"/>
+      <c r="K222" s="5"/>
       <c r="L222" s="17"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M222" s="17"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6092,10 +6501,11 @@
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
       <c r="J223" s="5"/>
-      <c r="K223" s="17"/>
+      <c r="K223" s="5"/>
       <c r="L223" s="17"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M223" s="17"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6106,10 +6516,11 @@
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
       <c r="J224" s="5"/>
-      <c r="K224" s="17"/>
+      <c r="K224" s="5"/>
       <c r="L224" s="17"/>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M224" s="17"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6120,10 +6531,11 @@
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
       <c r="J225" s="5"/>
-      <c r="K225" s="17"/>
+      <c r="K225" s="5"/>
       <c r="L225" s="17"/>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M225" s="17"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6134,10 +6546,11 @@
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
       <c r="J226" s="5"/>
-      <c r="K226" s="17"/>
+      <c r="K226" s="5"/>
       <c r="L226" s="17"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M226" s="17"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6148,10 +6561,11 @@
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="5"/>
       <c r="L227" s="17"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M227" s="17"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6162,10 +6576,11 @@
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
       <c r="J228" s="5"/>
-      <c r="K228" s="17"/>
+      <c r="K228" s="5"/>
       <c r="L228" s="17"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M228" s="17"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6176,10 +6591,11 @@
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
       <c r="J229" s="5"/>
-      <c r="K229" s="17"/>
+      <c r="K229" s="5"/>
       <c r="L229" s="17"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M229" s="17"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6190,10 +6606,11 @@
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
       <c r="J230" s="5"/>
-      <c r="K230" s="17"/>
+      <c r="K230" s="5"/>
       <c r="L230" s="17"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M230" s="17"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6204,10 +6621,11 @@
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
       <c r="J231" s="5"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="5"/>
       <c r="L231" s="17"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M231" s="17"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6218,10 +6636,11 @@
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
       <c r="J232" s="5"/>
-      <c r="K232" s="17"/>
+      <c r="K232" s="5"/>
       <c r="L232" s="17"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M232" s="17"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6232,10 +6651,11 @@
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
       <c r="J233" s="5"/>
-      <c r="K233" s="17"/>
+      <c r="K233" s="5"/>
       <c r="L233" s="17"/>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M233" s="17"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6246,10 +6666,11 @@
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
       <c r="J234" s="5"/>
-      <c r="K234" s="17"/>
+      <c r="K234" s="5"/>
       <c r="L234" s="17"/>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M234" s="17"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6260,10 +6681,11 @@
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
       <c r="J235" s="5"/>
-      <c r="K235" s="17"/>
+      <c r="K235" s="5"/>
       <c r="L235" s="17"/>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M235" s="17"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -6274,10 +6696,11 @@
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
       <c r="J236" s="5"/>
-      <c r="K236" s="17"/>
+      <c r="K236" s="5"/>
       <c r="L236" s="17"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M236" s="17"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -6288,10 +6711,11 @@
       <c r="H237" s="5"/>
       <c r="I237" s="5"/>
       <c r="J237" s="5"/>
-      <c r="K237" s="17"/>
+      <c r="K237" s="5"/>
       <c r="L237" s="17"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M237" s="17"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -6302,10 +6726,11 @@
       <c r="H238" s="5"/>
       <c r="I238" s="5"/>
       <c r="J238" s="5"/>
-      <c r="K238" s="17"/>
+      <c r="K238" s="5"/>
       <c r="L238" s="17"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M238" s="17"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6316,10 +6741,11 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
       <c r="J239" s="5"/>
-      <c r="K239" s="17"/>
+      <c r="K239" s="5"/>
       <c r="L239" s="17"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M239" s="17"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6330,10 +6756,11 @@
       <c r="H240" s="5"/>
       <c r="I240" s="5"/>
       <c r="J240" s="5"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="5"/>
       <c r="L240" s="17"/>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M240" s="17"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -6344,10 +6771,11 @@
       <c r="H241" s="5"/>
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
-      <c r="K241" s="17"/>
+      <c r="K241" s="5"/>
       <c r="L241" s="17"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M241" s="17"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6358,10 +6786,11 @@
       <c r="H242" s="5"/>
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
-      <c r="K242" s="17"/>
+      <c r="K242" s="5"/>
       <c r="L242" s="17"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M242" s="17"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -6372,10 +6801,11 @@
       <c r="H243" s="5"/>
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
-      <c r="K243" s="17"/>
+      <c r="K243" s="5"/>
       <c r="L243" s="17"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M243" s="17"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -6386,10 +6816,11 @@
       <c r="H244" s="5"/>
       <c r="I244" s="5"/>
       <c r="J244" s="5"/>
-      <c r="K244" s="17"/>
+      <c r="K244" s="5"/>
       <c r="L244" s="17"/>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M244" s="17"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -6400,10 +6831,11 @@
       <c r="H245" s="5"/>
       <c r="I245" s="5"/>
       <c r="J245" s="5"/>
-      <c r="K245" s="17"/>
+      <c r="K245" s="5"/>
       <c r="L245" s="17"/>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M245" s="17"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -6414,10 +6846,11 @@
       <c r="H246" s="5"/>
       <c r="I246" s="5"/>
       <c r="J246" s="5"/>
-      <c r="K246" s="17"/>
+      <c r="K246" s="5"/>
       <c r="L246" s="17"/>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M246" s="17"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -6428,10 +6861,11 @@
       <c r="H247" s="5"/>
       <c r="I247" s="5"/>
       <c r="J247" s="5"/>
-      <c r="K247" s="17"/>
+      <c r="K247" s="5"/>
       <c r="L247" s="17"/>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M247" s="17"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -6442,10 +6876,11 @@
       <c r="H248" s="5"/>
       <c r="I248" s="5"/>
       <c r="J248" s="5"/>
-      <c r="K248" s="17"/>
+      <c r="K248" s="5"/>
       <c r="L248" s="17"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M248" s="17"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -6456,10 +6891,11 @@
       <c r="H249" s="5"/>
       <c r="I249" s="5"/>
       <c r="J249" s="5"/>
-      <c r="K249" s="17"/>
+      <c r="K249" s="5"/>
       <c r="L249" s="17"/>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M249" s="17"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -6470,10 +6906,11 @@
       <c r="H250" s="5"/>
       <c r="I250" s="5"/>
       <c r="J250" s="5"/>
-      <c r="K250" s="17"/>
+      <c r="K250" s="5"/>
       <c r="L250" s="17"/>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M250" s="17"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -6484,10 +6921,11 @@
       <c r="H251" s="5"/>
       <c r="I251" s="5"/>
       <c r="J251" s="5"/>
-      <c r="K251" s="17"/>
+      <c r="K251" s="5"/>
       <c r="L251" s="17"/>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M251" s="17"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -6498,10 +6936,11 @@
       <c r="H252" s="5"/>
       <c r="I252" s="5"/>
       <c r="J252" s="5"/>
-      <c r="K252" s="17"/>
+      <c r="K252" s="5"/>
       <c r="L252" s="17"/>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M252" s="17"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -6512,10 +6951,11 @@
       <c r="H253" s="5"/>
       <c r="I253" s="5"/>
       <c r="J253" s="5"/>
-      <c r="K253" s="17"/>
+      <c r="K253" s="5"/>
       <c r="L253" s="17"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M253" s="17"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -6526,10 +6966,11 @@
       <c r="H254" s="5"/>
       <c r="I254" s="5"/>
       <c r="J254" s="5"/>
-      <c r="K254" s="17"/>
+      <c r="K254" s="5"/>
       <c r="L254" s="17"/>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M254" s="17"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -6540,10 +6981,11 @@
       <c r="H255" s="5"/>
       <c r="I255" s="5"/>
       <c r="J255" s="5"/>
-      <c r="K255" s="17"/>
+      <c r="K255" s="5"/>
       <c r="L255" s="17"/>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M255" s="17"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -6554,10 +6996,11 @@
       <c r="H256" s="5"/>
       <c r="I256" s="5"/>
       <c r="J256" s="5"/>
-      <c r="K256" s="17"/>
+      <c r="K256" s="5"/>
       <c r="L256" s="17"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M256" s="17"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -6568,10 +7011,11 @@
       <c r="H257" s="5"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
-      <c r="K257" s="17"/>
+      <c r="K257" s="5"/>
       <c r="L257" s="17"/>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M257" s="17"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -6582,10 +7026,11 @@
       <c r="H258" s="5"/>
       <c r="I258" s="5"/>
       <c r="J258" s="5"/>
-      <c r="K258" s="17"/>
+      <c r="K258" s="5"/>
       <c r="L258" s="17"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M258" s="17"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -6596,10 +7041,11 @@
       <c r="H259" s="5"/>
       <c r="I259" s="5"/>
       <c r="J259" s="5"/>
-      <c r="K259" s="17"/>
+      <c r="K259" s="5"/>
       <c r="L259" s="17"/>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M259" s="17"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -6610,10 +7056,11 @@
       <c r="H260" s="5"/>
       <c r="I260" s="5"/>
       <c r="J260" s="5"/>
-      <c r="K260" s="17"/>
+      <c r="K260" s="5"/>
       <c r="L260" s="17"/>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M260" s="17"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -6624,10 +7071,11 @@
       <c r="H261" s="5"/>
       <c r="I261" s="5"/>
       <c r="J261" s="5"/>
-      <c r="K261" s="17"/>
+      <c r="K261" s="5"/>
       <c r="L261" s="17"/>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M261" s="17"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -6638,10 +7086,11 @@
       <c r="H262" s="5"/>
       <c r="I262" s="5"/>
       <c r="J262" s="5"/>
-      <c r="K262" s="17"/>
+      <c r="K262" s="5"/>
       <c r="L262" s="17"/>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M262" s="17"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -6652,10 +7101,11 @@
       <c r="H263" s="5"/>
       <c r="I263" s="5"/>
       <c r="J263" s="5"/>
-      <c r="K263" s="17"/>
+      <c r="K263" s="5"/>
       <c r="L263" s="17"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M263" s="17"/>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -6666,10 +7116,11 @@
       <c r="H264" s="5"/>
       <c r="I264" s="5"/>
       <c r="J264" s="5"/>
-      <c r="K264" s="17"/>
+      <c r="K264" s="5"/>
       <c r="L264" s="17"/>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M264" s="17"/>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -6680,10 +7131,11 @@
       <c r="H265" s="5"/>
       <c r="I265" s="5"/>
       <c r="J265" s="5"/>
-      <c r="K265" s="17"/>
+      <c r="K265" s="5"/>
       <c r="L265" s="17"/>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M265" s="17"/>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -6694,10 +7146,11 @@
       <c r="H266" s="5"/>
       <c r="I266" s="5"/>
       <c r="J266" s="5"/>
-      <c r="K266" s="17"/>
+      <c r="K266" s="5"/>
       <c r="L266" s="17"/>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M266" s="17"/>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -6708,10 +7161,11 @@
       <c r="H267" s="5"/>
       <c r="I267" s="5"/>
       <c r="J267" s="5"/>
-      <c r="K267" s="17"/>
+      <c r="K267" s="5"/>
       <c r="L267" s="17"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M267" s="17"/>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -6722,10 +7176,11 @@
       <c r="H268" s="5"/>
       <c r="I268" s="5"/>
       <c r="J268" s="5"/>
-      <c r="K268" s="17"/>
+      <c r="K268" s="5"/>
       <c r="L268" s="17"/>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M268" s="17"/>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -6736,10 +7191,11 @@
       <c r="H269" s="5"/>
       <c r="I269" s="5"/>
       <c r="J269" s="5"/>
-      <c r="K269" s="17"/>
+      <c r="K269" s="5"/>
       <c r="L269" s="17"/>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M269" s="17"/>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -6750,10 +7206,11 @@
       <c r="H270" s="5"/>
       <c r="I270" s="5"/>
       <c r="J270" s="5"/>
-      <c r="K270" s="17"/>
+      <c r="K270" s="5"/>
       <c r="L270" s="17"/>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M270" s="17"/>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -6764,10 +7221,11 @@
       <c r="H271" s="5"/>
       <c r="I271" s="5"/>
       <c r="J271" s="5"/>
-      <c r="K271" s="17"/>
+      <c r="K271" s="5"/>
       <c r="L271" s="17"/>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M271" s="17"/>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -6778,10 +7236,11 @@
       <c r="H272" s="5"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
-      <c r="K272" s="17"/>
+      <c r="K272" s="5"/>
       <c r="L272" s="17"/>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M272" s="17"/>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -6792,10 +7251,11 @@
       <c r="H273" s="5"/>
       <c r="I273" s="5"/>
       <c r="J273" s="5"/>
-      <c r="K273" s="17"/>
+      <c r="K273" s="5"/>
       <c r="L273" s="17"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M273" s="17"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -6806,10 +7266,11 @@
       <c r="H274" s="5"/>
       <c r="I274" s="5"/>
       <c r="J274" s="5"/>
-      <c r="K274" s="17"/>
+      <c r="K274" s="5"/>
       <c r="L274" s="17"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M274" s="17"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -6820,10 +7281,11 @@
       <c r="H275" s="5"/>
       <c r="I275" s="5"/>
       <c r="J275" s="5"/>
-      <c r="K275" s="17"/>
+      <c r="K275" s="5"/>
       <c r="L275" s="17"/>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M275" s="17"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -6834,10 +7296,11 @@
       <c r="H276" s="5"/>
       <c r="I276" s="5"/>
       <c r="J276" s="5"/>
-      <c r="K276" s="17"/>
+      <c r="K276" s="5"/>
       <c r="L276" s="17"/>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M276" s="17"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -6848,10 +7311,11 @@
       <c r="H277" s="5"/>
       <c r="I277" s="5"/>
       <c r="J277" s="5"/>
-      <c r="K277" s="17"/>
+      <c r="K277" s="5"/>
       <c r="L277" s="17"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M277" s="17"/>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -6862,10 +7326,11 @@
       <c r="H278" s="5"/>
       <c r="I278" s="5"/>
       <c r="J278" s="5"/>
-      <c r="K278" s="17"/>
+      <c r="K278" s="5"/>
       <c r="L278" s="17"/>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M278" s="17"/>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -6876,10 +7341,11 @@
       <c r="H279" s="5"/>
       <c r="I279" s="5"/>
       <c r="J279" s="5"/>
-      <c r="K279" s="17"/>
+      <c r="K279" s="5"/>
       <c r="L279" s="17"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M279" s="17"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -6890,10 +7356,11 @@
       <c r="H280" s="5"/>
       <c r="I280" s="5"/>
       <c r="J280" s="5"/>
-      <c r="K280" s="17"/>
+      <c r="K280" s="5"/>
       <c r="L280" s="17"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M280" s="17"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -6904,10 +7371,11 @@
       <c r="H281" s="5"/>
       <c r="I281" s="5"/>
       <c r="J281" s="5"/>
-      <c r="K281" s="17"/>
+      <c r="K281" s="5"/>
       <c r="L281" s="17"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M281" s="17"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -6918,10 +7386,11 @@
       <c r="H282" s="5"/>
       <c r="I282" s="5"/>
       <c r="J282" s="5"/>
-      <c r="K282" s="17"/>
+      <c r="K282" s="5"/>
       <c r="L282" s="17"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M282" s="17"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -6932,10 +7401,11 @@
       <c r="H283" s="5"/>
       <c r="I283" s="5"/>
       <c r="J283" s="5"/>
-      <c r="K283" s="17"/>
+      <c r="K283" s="5"/>
       <c r="L283" s="17"/>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M283" s="17"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -6946,10 +7416,11 @@
       <c r="H284" s="5"/>
       <c r="I284" s="5"/>
       <c r="J284" s="5"/>
-      <c r="K284" s="17"/>
+      <c r="K284" s="5"/>
       <c r="L284" s="17"/>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M284" s="17"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -6960,10 +7431,11 @@
       <c r="H285" s="5"/>
       <c r="I285" s="5"/>
       <c r="J285" s="5"/>
-      <c r="K285" s="17"/>
+      <c r="K285" s="5"/>
       <c r="L285" s="17"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M285" s="17"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -6974,10 +7446,11 @@
       <c r="H286" s="5"/>
       <c r="I286" s="5"/>
       <c r="J286" s="5"/>
-      <c r="K286" s="17"/>
+      <c r="K286" s="5"/>
       <c r="L286" s="17"/>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M286" s="17"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -6988,10 +7461,11 @@
       <c r="H287" s="5"/>
       <c r="I287" s="5"/>
       <c r="J287" s="5"/>
-      <c r="K287" s="17"/>
+      <c r="K287" s="5"/>
       <c r="L287" s="17"/>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M287" s="17"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -7002,10 +7476,11 @@
       <c r="H288" s="5"/>
       <c r="I288" s="5"/>
       <c r="J288" s="5"/>
-      <c r="K288" s="17"/>
+      <c r="K288" s="5"/>
       <c r="L288" s="17"/>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M288" s="17"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -7016,10 +7491,11 @@
       <c r="H289" s="5"/>
       <c r="I289" s="5"/>
       <c r="J289" s="5"/>
-      <c r="K289" s="17"/>
+      <c r="K289" s="5"/>
       <c r="L289" s="17"/>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M289" s="17"/>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -7030,10 +7506,11 @@
       <c r="H290" s="5"/>
       <c r="I290" s="5"/>
       <c r="J290" s="5"/>
-      <c r="K290" s="17"/>
+      <c r="K290" s="5"/>
       <c r="L290" s="17"/>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M290" s="17"/>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -7044,10 +7521,11 @@
       <c r="H291" s="5"/>
       <c r="I291" s="5"/>
       <c r="J291" s="5"/>
-      <c r="K291" s="17"/>
+      <c r="K291" s="5"/>
       <c r="L291" s="17"/>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M291" s="17"/>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -7058,10 +7536,11 @@
       <c r="H292" s="5"/>
       <c r="I292" s="5"/>
       <c r="J292" s="5"/>
-      <c r="K292" s="17"/>
+      <c r="K292" s="5"/>
       <c r="L292" s="17"/>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M292" s="17"/>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -7072,10 +7551,11 @@
       <c r="H293" s="5"/>
       <c r="I293" s="5"/>
       <c r="J293" s="5"/>
-      <c r="K293" s="17"/>
+      <c r="K293" s="5"/>
       <c r="L293" s="17"/>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M293" s="17"/>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -7086,10 +7566,11 @@
       <c r="H294" s="5"/>
       <c r="I294" s="5"/>
       <c r="J294" s="5"/>
-      <c r="K294" s="17"/>
+      <c r="K294" s="5"/>
       <c r="L294" s="17"/>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M294" s="17"/>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -7100,10 +7581,11 @@
       <c r="H295" s="5"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
-      <c r="K295" s="17"/>
+      <c r="K295" s="5"/>
       <c r="L295" s="17"/>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M295" s="17"/>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -7114,10 +7596,11 @@
       <c r="H296" s="5"/>
       <c r="I296" s="5"/>
       <c r="J296" s="5"/>
-      <c r="K296" s="17"/>
+      <c r="K296" s="5"/>
       <c r="L296" s="17"/>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M296" s="17"/>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -7128,10 +7611,11 @@
       <c r="H297" s="5"/>
       <c r="I297" s="5"/>
       <c r="J297" s="5"/>
-      <c r="K297" s="17"/>
+      <c r="K297" s="5"/>
       <c r="L297" s="17"/>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M297" s="17"/>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -7142,10 +7626,11 @@
       <c r="H298" s="5"/>
       <c r="I298" s="5"/>
       <c r="J298" s="5"/>
-      <c r="K298" s="17"/>
+      <c r="K298" s="5"/>
       <c r="L298" s="17"/>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M298" s="17"/>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -7156,10 +7641,11 @@
       <c r="H299" s="5"/>
       <c r="I299" s="5"/>
       <c r="J299" s="5"/>
-      <c r="K299" s="17"/>
+      <c r="K299" s="5"/>
       <c r="L299" s="17"/>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M299" s="17"/>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -7170,10 +7656,11 @@
       <c r="H300" s="5"/>
       <c r="I300" s="5"/>
       <c r="J300" s="5"/>
-      <c r="K300" s="17"/>
+      <c r="K300" s="5"/>
       <c r="L300" s="17"/>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M300" s="17"/>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -7184,10 +7671,11 @@
       <c r="H301" s="5"/>
       <c r="I301" s="5"/>
       <c r="J301" s="5"/>
-      <c r="K301" s="17"/>
+      <c r="K301" s="5"/>
       <c r="L301" s="17"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M301" s="17"/>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -7198,10 +7686,11 @@
       <c r="H302" s="5"/>
       <c r="I302" s="5"/>
       <c r="J302" s="5"/>
-      <c r="K302" s="17"/>
+      <c r="K302" s="5"/>
       <c r="L302" s="17"/>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M302" s="17"/>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -7212,10 +7701,11 @@
       <c r="H303" s="5"/>
       <c r="I303" s="5"/>
       <c r="J303" s="5"/>
-      <c r="K303" s="17"/>
+      <c r="K303" s="5"/>
       <c r="L303" s="17"/>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M303" s="17"/>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -7226,10 +7716,11 @@
       <c r="H304" s="5"/>
       <c r="I304" s="5"/>
       <c r="J304" s="5"/>
-      <c r="K304" s="17"/>
+      <c r="K304" s="5"/>
       <c r="L304" s="17"/>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M304" s="17"/>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -7240,10 +7731,11 @@
       <c r="H305" s="5"/>
       <c r="I305" s="5"/>
       <c r="J305" s="5"/>
-      <c r="K305" s="17"/>
+      <c r="K305" s="5"/>
       <c r="L305" s="17"/>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M305" s="17"/>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -7254,10 +7746,11 @@
       <c r="H306" s="5"/>
       <c r="I306" s="5"/>
       <c r="J306" s="5"/>
-      <c r="K306" s="17"/>
+      <c r="K306" s="5"/>
       <c r="L306" s="17"/>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M306" s="17"/>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -7268,10 +7761,11 @@
       <c r="H307" s="5"/>
       <c r="I307" s="5"/>
       <c r="J307" s="5"/>
-      <c r="K307" s="17"/>
+      <c r="K307" s="5"/>
       <c r="L307" s="17"/>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M307" s="17"/>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -7282,10 +7776,11 @@
       <c r="H308" s="5"/>
       <c r="I308" s="5"/>
       <c r="J308" s="5"/>
-      <c r="K308" s="17"/>
+      <c r="K308" s="5"/>
       <c r="L308" s="17"/>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M308" s="17"/>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -7296,10 +7791,11 @@
       <c r="H309" s="5"/>
       <c r="I309" s="5"/>
       <c r="J309" s="5"/>
-      <c r="K309" s="17"/>
+      <c r="K309" s="5"/>
       <c r="L309" s="17"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M309" s="17"/>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -7310,10 +7806,11 @@
       <c r="H310" s="5"/>
       <c r="I310" s="5"/>
       <c r="J310" s="5"/>
-      <c r="K310" s="17"/>
+      <c r="K310" s="5"/>
       <c r="L310" s="17"/>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M310" s="17"/>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -7324,10 +7821,11 @@
       <c r="H311" s="5"/>
       <c r="I311" s="5"/>
       <c r="J311" s="5"/>
-      <c r="K311" s="17"/>
+      <c r="K311" s="5"/>
       <c r="L311" s="17"/>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M311" s="17"/>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -7338,10 +7836,11 @@
       <c r="H312" s="5"/>
       <c r="I312" s="5"/>
       <c r="J312" s="5"/>
-      <c r="K312" s="17"/>
+      <c r="K312" s="5"/>
       <c r="L312" s="17"/>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M312" s="17"/>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -7352,10 +7851,11 @@
       <c r="H313" s="5"/>
       <c r="I313" s="5"/>
       <c r="J313" s="5"/>
-      <c r="K313" s="17"/>
+      <c r="K313" s="5"/>
       <c r="L313" s="17"/>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M313" s="17"/>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -7366,10 +7866,11 @@
       <c r="H314" s="5"/>
       <c r="I314" s="5"/>
       <c r="J314" s="5"/>
-      <c r="K314" s="17"/>
+      <c r="K314" s="5"/>
       <c r="L314" s="17"/>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M314" s="17"/>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -7380,10 +7881,11 @@
       <c r="H315" s="5"/>
       <c r="I315" s="5"/>
       <c r="J315" s="5"/>
-      <c r="K315" s="17"/>
+      <c r="K315" s="5"/>
       <c r="L315" s="17"/>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M315" s="17"/>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -7394,10 +7896,11 @@
       <c r="H316" s="5"/>
       <c r="I316" s="5"/>
       <c r="J316" s="5"/>
-      <c r="K316" s="17"/>
+      <c r="K316" s="5"/>
       <c r="L316" s="17"/>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M316" s="17"/>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -7408,10 +7911,11 @@
       <c r="H317" s="5"/>
       <c r="I317" s="5"/>
       <c r="J317" s="5"/>
-      <c r="K317" s="17"/>
+      <c r="K317" s="5"/>
       <c r="L317" s="17"/>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M317" s="17"/>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -7422,10 +7926,11 @@
       <c r="H318" s="5"/>
       <c r="I318" s="5"/>
       <c r="J318" s="5"/>
-      <c r="K318" s="17"/>
+      <c r="K318" s="5"/>
       <c r="L318" s="17"/>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M318" s="17"/>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -7436,10 +7941,11 @@
       <c r="H319" s="5"/>
       <c r="I319" s="5"/>
       <c r="J319" s="5"/>
-      <c r="K319" s="17"/>
+      <c r="K319" s="5"/>
       <c r="L319" s="17"/>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M319" s="17"/>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -7450,8 +7956,9 @@
       <c r="H320" s="5"/>
       <c r="I320" s="5"/>
       <c r="J320" s="5"/>
-      <c r="K320" s="17"/>
+      <c r="K320" s="5"/>
       <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -7469,13 +7976,13 @@
               <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!ThisWorkbook.openUI">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>14</xdr:col>
+                    <xdr:col>15</xdr:col>
                     <xdr:colOff>324196</xdr:colOff>
                     <xdr:row>1</xdr:row>
                     <xdr:rowOff>58189</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>16</xdr:col>
+                    <xdr:col>17</xdr:col>
                     <xdr:colOff>548640</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>

--- a/Data2.xlsx
+++ b/Data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2371AD6-2012-46E4-8643-33B12D863733}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B0811-F220-4E03-9785-39322C01D61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -748,8 +748,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="T76" sqref="T76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -817,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -940,7 +940,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -1227,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -1268,7 +1268,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="6">
         <v>1</v>
@@ -1350,7 +1350,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6">
         <v>1</v>
@@ -1391,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1432,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1514,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1596,7 +1596,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="6">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="6">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="6">
         <v>1</v>
@@ -1924,7 +1924,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -1965,7 +1965,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -2006,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" s="6">
         <v>1</v>
@@ -2088,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="6">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="6">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" s="6">
         <v>1</v>
@@ -2252,7 +2252,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="6">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
         <v>1</v>
@@ -2334,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="C39" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" s="6">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" s="6">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="C41" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" s="6">
         <v>1</v>
@@ -2457,7 +2457,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" s="6">
         <v>1</v>
@@ -2498,7 +2498,7 @@
         <v>5</v>
       </c>
       <c r="C43" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -2539,7 +2539,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" s="6">
         <v>1</v>
@@ -2621,7 +2621,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" s="6">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" s="6">
         <v>1</v>
@@ -2703,7 +2703,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="6">
         <v>1</v>
@@ -2744,7 +2744,7 @@
         <v>5</v>
       </c>
       <c r="C49" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" s="6">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>5</v>
       </c>
       <c r="C50" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" s="6">
         <v>1</v>
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="C51" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" s="6">
         <v>1</v>
@@ -2867,7 +2867,7 @@
         <v>5</v>
       </c>
       <c r="C52" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
@@ -2949,7 +2949,7 @@
         <v>5</v>
       </c>
       <c r="C54" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
       <c r="C55" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
@@ -3031,7 +3031,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -3113,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="C58" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -3154,7 +3154,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" s="6">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" s="6">
         <v>1</v>
@@ -3277,7 +3277,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" s="6">
         <v>1</v>
@@ -3318,7 +3318,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6">
         <v>1</v>
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6">
         <v>1</v>
@@ -3400,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" s="6">
         <v>1</v>
@@ -3441,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="6">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" s="6">
         <v>1</v>
@@ -3523,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6">
         <v>1</v>
@@ -3564,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" s="6">
         <v>1</v>
@@ -3605,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" s="6">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -3687,7 +3687,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" s="6">
         <v>1</v>
@@ -3728,7 +3728,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" s="6">
         <v>1</v>
@@ -3769,7 +3769,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" s="6">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="6">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" s="6">
         <v>1</v>
@@ -3892,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" s="6">
         <v>1</v>
@@ -3974,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" s="6">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" s="6">
         <v>1</v>
@@ -4056,7 +4056,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6">
         <v>1</v>
@@ -4138,7 +4138,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" s="6">
         <v>1</v>
@@ -4220,7 +4220,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6">
         <v>1</v>
@@ -4261,7 +4261,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4343,7 +4343,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6">
         <v>1</v>
@@ -4384,7 +4384,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" s="6">
         <v>1</v>
@@ -4466,7 +4466,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" s="6">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>5</v>
       </c>
       <c r="C92" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" s="6">
         <v>1</v>
